--- a/Tables/Telework_NUTS.xlsx
+++ b/Tables/Telework_NUTS.xlsx
@@ -42837,7 +42837,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I203"/>
+  <dimension ref="A1:K203"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -42856,41 +42856,52 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>urbrur</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Diff %TW
 2019-2021 (pp)</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Diff %TW
 2021-2022 (pp)</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Diff %TW
+2019-2022 (pp)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -42903,26 +42914,34 @@
           <t>Ostösterreich</t>
         </is>
       </c>
-      <c r="C2">
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Capital region</t>
+        </is>
+      </c>
+      <c r="D2">
         <v>0.2432987904182285</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>0.2472409470812075</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0.3387892781674349</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>0.3475212954783705</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>0.3312182493632364</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>10.0280348397163</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>-1.630304611513411</v>
+      </c>
+      <c r="K2">
+        <v>8.397730228202887</v>
       </c>
     </row>
     <row r="3">
@@ -42936,26 +42955,34 @@
           <t>Südösterreich</t>
         </is>
       </c>
-      <c r="C3">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Mainly rural</t>
+        </is>
+      </c>
+      <c r="D3">
         <v>0.1987952394726901</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.200649864852312</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.2608017965139492</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.2423255295284407</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0.2346638676853491</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>4.167566467612868</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>-0.7661661843091555</v>
+      </c>
+      <c r="K3">
+        <v>3.401400283303713</v>
       </c>
     </row>
     <row r="4">
@@ -42969,26 +42996,34 @@
           <t>Westösterreich</t>
         </is>
       </c>
-      <c r="C4">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Mainly rural</t>
+        </is>
+      </c>
+      <c r="D4">
         <v>0.1942430858028358</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>0.2010385523851444</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>0.2564816137965245</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>0.2387415100335794</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>0.2357364498746725</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>3.770295764843495</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>-0.3005060158906836</v>
+      </c>
+      <c r="K4">
+        <v>3.469789748952812</v>
       </c>
     </row>
     <row r="5">
@@ -43002,26 +43037,34 @@
           <t>Région de Bruxelles-Capitale/ Brussels Hoofdstedelijk Gewest</t>
         </is>
       </c>
-      <c r="C5">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Capital region</t>
+        </is>
+      </c>
+      <c r="D5">
         <v>0.2621279748267991</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>0.2841770508176261</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0.4437592010181594</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>0.4769950065601401</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>0.4066989839245707</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>19.2817955742514</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>-7.029602263556939</v>
+      </c>
+      <c r="K5">
+        <v>12.25219331069446</v>
       </c>
     </row>
     <row r="6">
@@ -43035,26 +43078,34 @@
           <t>Prov. Antwerpen</t>
         </is>
       </c>
-      <c r="C6">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Mainly urban</t>
+        </is>
+      </c>
+      <c r="D6">
         <v>0.2361134573033213</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>0.2769752489509077</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>0.3368239830069555</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>0.4122592147961023</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>0.3935793010272234</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>13.52839658451946</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>-1.86799137688789</v>
+      </c>
+      <c r="K6">
+        <v>11.66040520763157</v>
       </c>
     </row>
     <row r="7">
@@ -43068,26 +43119,34 @@
           <t>Prov. Limburg (BE)</t>
         </is>
       </c>
-      <c r="C7">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Intermediate</t>
+        </is>
+      </c>
+      <c r="D7">
         <v>0.2001907239905285</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>0.2253474396975574</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.2960436354721298</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>0.3230153122100726</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>0.3210505464286404</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>9.766787251251527</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>-0.1964765781432176</v>
+      </c>
+      <c r="K7">
+        <v>9.57031067310831</v>
       </c>
     </row>
     <row r="8">
@@ -43101,26 +43160,34 @@
           <t>Prov. Oost-Vlaanderen</t>
         </is>
       </c>
-      <c r="C8">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Intermediate</t>
+        </is>
+      </c>
+      <c r="D8">
         <v>0.2286874070950045</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>0.2220412208854209</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>0.3355743087796342</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>0.4322875669375927</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>0.3644663199880248</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>21.02463460521718</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>-6.782124694956798</v>
+      </c>
+      <c r="K8">
+        <v>14.24250991026038</v>
       </c>
     </row>
     <row r="9">
@@ -43134,26 +43201,34 @@
           <t>Prov. Vlaams-Brabant</t>
         </is>
       </c>
-      <c r="C9">
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Mainly urban</t>
+        </is>
+      </c>
+      <c r="D9">
         <v>0.240463971094182</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>0.3149092493278665</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>0.4460415331556482</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>0.5015724154536437</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>0.4354178394641966</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>18.66631661257772</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>-6.615457598944713</v>
+      </c>
+      <c r="K9">
+        <v>12.05085901363301</v>
       </c>
     </row>
     <row r="10">
@@ -43167,26 +43242,34 @@
           <t>Prov. West-Vlaanderen</t>
         </is>
       </c>
-      <c r="C10">
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Intermediate</t>
+        </is>
+      </c>
+      <c r="D10">
         <v>0.2265113563663807</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>0.2605204409434273</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>0.2816244822907578</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>0.3322895699326678</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>0.3129059285649397</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>7.176912898924048</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>-1.938364136772813</v>
+      </c>
+      <c r="K10">
+        <v>5.238548762151235</v>
       </c>
     </row>
     <row r="11">
@@ -43200,26 +43283,34 @@
           <t>Prov. Brabant Wallon</t>
         </is>
       </c>
-      <c r="C11">
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Intermediate</t>
+        </is>
+      </c>
+      <c r="D11">
         <v>0.3619087315078311</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>0.3755117464959244</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>0.5045684918418276</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>0.532872786754729</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>0.512577511975604</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>15.73610402588046</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>-2.029527477912507</v>
+      </c>
+      <c r="K11">
+        <v>13.70657654796796</v>
       </c>
     </row>
     <row r="12">
@@ -43233,26 +43324,34 @@
           <t>Prov. Hainaut</t>
         </is>
       </c>
-      <c r="C12">
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Mainly urban</t>
+        </is>
+      </c>
+      <c r="D12">
         <v>0.17913169743248</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>0.1522985233624289</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>0.2397435918689191</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>0.3079392438976409</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>0.2494024026646881</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>15.5640720535212</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>-5.853684123295285</v>
+      </c>
+      <c r="K12">
+        <v>9.710387930225913</v>
       </c>
     </row>
     <row r="13">
@@ -43266,26 +43365,34 @@
           <t>Prov. Liège</t>
         </is>
       </c>
-      <c r="C13">
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Mainly urban</t>
+        </is>
+      </c>
+      <c r="D13">
         <v>0.191425459521523</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>0.197578834398905</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>0.2672225178176717</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>0.3247589327890474</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>0.2517795225123633</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>12.71800983901424</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>-7.297941027668409</v>
+      </c>
+      <c r="K13">
+        <v>5.420068811345832</v>
       </c>
     </row>
     <row r="14">
@@ -43299,26 +43406,34 @@
           <t>Prov. Luxembourg (BE)</t>
         </is>
       </c>
-      <c r="C14">
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Mainly rural</t>
+        </is>
+      </c>
+      <c r="D14">
         <v>0.2034916887765676</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>0.1676683546003885</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>0.2946150356508821</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>0.3305221863684762</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>0.2966947698098162</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>16.28538317680878</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>-3.382741655865995</v>
+      </c>
+      <c r="K14">
+        <v>12.90264152094278</v>
       </c>
     </row>
     <row r="15">
@@ -43332,26 +43447,34 @@
           <t>Prov. Namur</t>
         </is>
       </c>
-      <c r="C15">
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Intermediate</t>
+        </is>
+      </c>
+      <c r="D15">
         <v>0.2233320720832207</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>0.2453276670072812</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>0.3324402779149313</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>0.4122411056693968</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>0.3773899129420353</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>16.69134386621156</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>-3.485119272736154</v>
+      </c>
+      <c r="K15">
+        <v>13.2062245934754</v>
       </c>
     </row>
     <row r="16">
@@ -43365,26 +43488,34 @@
           <t>Severozapaden</t>
         </is>
       </c>
-      <c r="C16">
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Intermediate</t>
+        </is>
+      </c>
+      <c r="D16">
         <v>0.004878860576027505</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>0.006338970882400215</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>0.02345257413906552</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>0.0485128190401129</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>0.02621707631550473</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>4.217384815771268</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>-2.229574272460817</v>
+      </c>
+      <c r="K16">
+        <v>1.987810543310452</v>
       </c>
     </row>
     <row r="17">
@@ -43398,26 +43529,34 @@
           <t>Severen tsentralen</t>
         </is>
       </c>
-      <c r="C17">
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Intermediate</t>
+        </is>
+      </c>
+      <c r="D17">
         <v>0.01665216497083769</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>0.01827341346677807</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>0.02020644239590605</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>0.04730551093296739</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>0.02776809702088816</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>2.903209746618932</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>-1.953741391207923</v>
+      </c>
+      <c r="K17">
+        <v>0.9494683554110092</v>
       </c>
     </row>
     <row r="18">
@@ -43431,26 +43570,34 @@
           <t>Severoiztochen</t>
         </is>
       </c>
-      <c r="C18">
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Intermediate</t>
+        </is>
+      </c>
+      <c r="D18">
         <v>0.008448546301796513</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>0.008640227325182034</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>0.02945843932956818</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>0.04004444607997239</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>0.03279166189559544</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>3.140421875479035</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>-0.7252784184376943</v>
+      </c>
+      <c r="K18">
+        <v>2.415143457041341</v>
       </c>
     </row>
     <row r="19">
@@ -43464,26 +43611,34 @@
           <t>Yugoiztochen</t>
         </is>
       </c>
-      <c r="C19">
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Intermediate</t>
+        </is>
+      </c>
+      <c r="D19">
         <v>0.007513307154359992</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>0.005019113502654523</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>0.01574711310179801</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>0.04137153687166384</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>0.026568101179861</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>3.635242336900932</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>-1.480343569180283</v>
+      </c>
+      <c r="K19">
+        <v>2.154898767720648</v>
       </c>
     </row>
     <row r="20">
@@ -43497,26 +43652,34 @@
           <t>Yugozapaden</t>
         </is>
       </c>
-      <c r="C20">
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Capital region</t>
+        </is>
+      </c>
+      <c r="D20">
         <v>0.008373655102154725</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>0.01424699012410844</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>0.04694849498958362</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>0.101329813426708</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>0.06813739804354829</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>8.708282330259959</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>-3.319241538315973</v>
+      </c>
+      <c r="K20">
+        <v>5.389040791943986</v>
       </c>
     </row>
     <row r="21">
@@ -43530,26 +43693,34 @@
           <t>Yuzhen tsentralen</t>
         </is>
       </c>
-      <c r="C21">
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Intermediate</t>
+        </is>
+      </c>
+      <c r="D21">
         <v>0.01008546777246948</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>0.00953254168120659</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>0.02192001546375212</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>0.05182902191086972</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>0.04230042536790595</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>4.229648022966313</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>-0.9528596542963772</v>
+      </c>
+      <c r="K21">
+        <v>3.276788368669936</v>
       </c>
     </row>
     <row r="22">
@@ -43563,26 +43734,34 @@
           <t>Kýpros</t>
         </is>
       </c>
-      <c r="C22">
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Whole country</t>
+        </is>
+      </c>
+      <c r="D22">
         <v>0.02190241239042156</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>0.02615875041423847</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>0.07373924897041009</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>0.1264758316573234</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>0.1093163990233718</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>10.03170812430849</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>-1.71594326339516</v>
+      </c>
+      <c r="K22">
+        <v>8.31576486091333</v>
       </c>
     </row>
     <row r="23">
@@ -43596,26 +43775,34 @@
           <t>Praha</t>
         </is>
       </c>
-      <c r="C23">
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Capital region</t>
+        </is>
+      </c>
+      <c r="D23">
         <v>0.1639763749241222</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>0.1627222170313354</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>0.2503124635911856</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>0.2915758679373437</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>0.3738231613330786</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>12.88536509060083</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>8.224729339573489</v>
+      </c>
+      <c r="K23">
+        <v>21.11009443017432</v>
       </c>
     </row>
     <row r="24">
@@ -43629,26 +43816,34 @@
           <t>Střední Čechy</t>
         </is>
       </c>
-      <c r="C24">
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Mainly urban</t>
+        </is>
+      </c>
+      <c r="D24">
         <v>0.08203334140392664</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>0.09041475614393107</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>0.1168525952231665</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>0.1604559776742196</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>0.1543581213799227</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>7.004122153028855</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>-0.6097856294296877</v>
+      </c>
+      <c r="K24">
+        <v>6.394336523599168</v>
       </c>
     </row>
     <row r="25">
@@ -43662,26 +43857,34 @@
           <t>Jihozápad</t>
         </is>
       </c>
-      <c r="C25">
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Mainly rural</t>
+        </is>
+      </c>
+      <c r="D25">
         <v>0.06214440408270835</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>0.0723295172915091</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>0.09351848682183209</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>0.09771088487966459</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>0.09044455101481487</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>2.538136758815548</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>-0.7266333864849719</v>
+      </c>
+      <c r="K25">
+        <v>1.811503372330576</v>
       </c>
     </row>
     <row r="26">
@@ -43695,26 +43898,34 @@
           <t>Severozápad</t>
         </is>
       </c>
-      <c r="C26">
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Intermediate</t>
+        </is>
+      </c>
+      <c r="D26">
         <v>0.06381791474164572</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>0.08150072073498464</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>0.08381962478849722</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>0.08442962503406719</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>0.1275260608899265</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>0.2928904299082546</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>4.309643585585933</v>
+      </c>
+      <c r="K26">
+        <v>4.602534015494188</v>
       </c>
     </row>
     <row r="27">
@@ -43728,26 +43939,34 @@
           <t>Severovýchod</t>
         </is>
       </c>
-      <c r="C27">
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Intermediate</t>
+        </is>
+      </c>
+      <c r="D27">
         <v>0.09320697074915472</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>0.1152781302693097</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>0.1252093065708359</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>0.1328296555232211</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>0.1425336828093957</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>1.755152525391135</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>0.9704027286174616</v>
+      </c>
+      <c r="K27">
+        <v>2.725555254008596</v>
       </c>
     </row>
     <row r="28">
@@ -43761,26 +43980,34 @@
           <t>Jihovýchod</t>
         </is>
       </c>
-      <c r="C28">
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Intermediate</t>
+        </is>
+      </c>
+      <c r="D28">
         <v>0.1132872807914918</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>0.1118471515718992</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>0.1442796643216987</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>0.1370306867967795</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>0.1267807909848414</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>2.518353522488037</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>-1.024989581193811</v>
+      </c>
+      <c r="K28">
+        <v>1.493363941294226</v>
       </c>
     </row>
     <row r="29">
@@ -43794,26 +44021,34 @@
           <t>Střední Morava</t>
         </is>
       </c>
-      <c r="C29">
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Intermediate</t>
+        </is>
+      </c>
+      <c r="D29">
         <v>0.06539796103961815</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>0.08737623152682879</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>0.1121117982915346</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>0.1222367137809615</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>0.1202800252994851</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>3.486048225413275</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>-0.195668848147644</v>
+      </c>
+      <c r="K29">
+        <v>3.290379377265631</v>
       </c>
     </row>
     <row r="30">
@@ -43827,26 +44062,34 @@
           <t>Moravskoslezsko</t>
         </is>
       </c>
-      <c r="C30">
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Intermediate</t>
+        </is>
+      </c>
+      <c r="D30">
         <v>0.1002219137923252</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>0.07699430468738301</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>0.1032887293158679</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>0.105126304173666</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>0.1388678510950402</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>2.813199948628303</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>3.37415469213742</v>
+      </c>
+      <c r="K30">
+        <v>6.187354640765723</v>
       </c>
     </row>
     <row r="31">
@@ -43860,26 +44103,34 @@
           <t>Baden-Württemberg</t>
         </is>
       </c>
-      <c r="C31">
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Intermediate</t>
+        </is>
+      </c>
+      <c r="D31">
         <v>0.1291813187030383</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>0.1399110765089789</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>0.2273939454388668</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>0.2555558964254553</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>0.2500397105722905</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>11.56448199164764</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>-0.5516185853164768</v>
+      </c>
+      <c r="K31">
+        <v>11.01286340633117</v>
       </c>
     </row>
     <row r="32">
@@ -43893,26 +44144,34 @@
           <t>Bayern</t>
         </is>
       </c>
-      <c r="C32">
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Intermediate</t>
+        </is>
+      </c>
+      <c r="D32">
         <v>0.1344342068917696</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>0.1419845075272574</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>0.2277477916333981</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>0.2696314751785675</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>0.2626221381677719</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>12.76469676513101</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>-0.7009337010795591</v>
+      </c>
+      <c r="K32">
+        <v>12.06376306405145</v>
       </c>
     </row>
     <row r="33">
@@ -43926,26 +44185,34 @@
           <t>Berlin</t>
         </is>
       </c>
-      <c r="C33">
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Capital region</t>
+        </is>
+      </c>
+      <c r="D33">
         <v>0.1659347965367669</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>0.1741163251941661</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>0.2889900240064655</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>0.3847219306958731</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>0.3707656303488763</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>21.0605605501707</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>-1.395630034699674</v>
+      </c>
+      <c r="K33">
+        <v>19.66493051547102</v>
       </c>
     </row>
     <row r="34">
@@ -43959,26 +44226,34 @@
           <t>Brandenburg</t>
         </is>
       </c>
-      <c r="C34">
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Intermediate</t>
+        </is>
+      </c>
+      <c r="D34">
         <v>0.09336956008374742</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>0.1008102101718124</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>0.1302236767077663</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>0.1855584000873913</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>0.1820732046618986</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>8.474818991557884</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>-0.3485195425492693</v>
+      </c>
+      <c r="K34">
+        <v>8.126299449008615</v>
       </c>
     </row>
     <row r="35">
@@ -43992,26 +44267,34 @@
           <t>Bremen</t>
         </is>
       </c>
-      <c r="C35">
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Mainly urban</t>
+        </is>
+      </c>
+      <c r="D35">
         <v>0.1029571089965286</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>0.1167625647478468</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>0.1954887151929418</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>0.2444142757667027</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>0.2412516481431305</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>12.76517110188559</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>-0.316262762357214</v>
+      </c>
+      <c r="K35">
+        <v>12.44890833952837</v>
       </c>
     </row>
     <row r="36">
@@ -44025,26 +44308,34 @@
           <t>Hamburg</t>
         </is>
       </c>
-      <c r="C36">
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Mainly urban</t>
+        </is>
+      </c>
+      <c r="D36">
         <v>0.1689348863025781</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>0.1662154209474735</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>0.2969233207833619</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>0.4005715516575076</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>0.3731345137786291</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>23.4356130710034</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>-2.743703787887847</v>
+      </c>
+      <c r="K36">
+        <v>20.69190928311556</v>
       </c>
     </row>
     <row r="37">
@@ -44058,26 +44349,34 @@
           <t>Hessen</t>
         </is>
       </c>
-      <c r="C37">
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Mainly urban</t>
+        </is>
+      </c>
+      <c r="D37">
         <v>0.1401691602718577</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>0.1597310813415586</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>0.2518689228800337</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>0.282436847547449</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>0.2808399433353181</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>12.27057662058904</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>-0.1596904212130934</v>
+      </c>
+      <c r="K37">
+        <v>12.11088619937594</v>
       </c>
     </row>
     <row r="38">
@@ -44091,26 +44390,34 @@
           <t>Mecklenburg-Vorpommern</t>
         </is>
       </c>
-      <c r="C38">
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Mainly rural</t>
+        </is>
+      </c>
+      <c r="D38">
         <v>0.07817181465810955</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>0.07443670557198087</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>0.1173545204186826</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>0.1438158210392219</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>0.167360382809716</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>6.937911546724107</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>2.354456177049408</v>
+      </c>
+      <c r="K38">
+        <v>9.292367723773514</v>
       </c>
     </row>
     <row r="39">
@@ -44124,26 +44431,34 @@
           <t>Niedersachsen</t>
         </is>
       </c>
-      <c r="C39">
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Intermediate</t>
+        </is>
+      </c>
+      <c r="D39">
         <v>0.1074918979670723</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>0.1136660287055843</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>0.1963239391364051</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>0.2251541745131675</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>0.2216337136484041</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>11.14881458075832</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>-0.3520460864763431</v>
+      </c>
+      <c r="K39">
+        <v>10.79676849428198</v>
       </c>
     </row>
     <row r="40">
@@ -44157,26 +44472,34 @@
           <t>Nordrhein-Westfalen</t>
         </is>
       </c>
-      <c r="C40">
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Mainly urban</t>
+        </is>
+      </c>
+      <c r="D40">
         <v>0.1056585023392201</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>0.1179262244754075</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>0.2089849563070396</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>0.249604893676767</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>0.2458326438117387</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>13.16786692013595</v>
       </c>
-      <c r="I40">
+      <c r="J40">
         <v>-0.3772249865028277</v>
+      </c>
+      <c r="K40">
+        <v>12.79064193363313</v>
       </c>
     </row>
     <row r="41">
@@ -44190,26 +44513,34 @@
           <t>Rheinland-Pfalz</t>
         </is>
       </c>
-      <c r="C41">
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Intermediate</t>
+        </is>
+      </c>
+      <c r="D41">
         <v>0.1206624285418564</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <v>0.1241171424130959</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>0.2010502679790281</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>0.2335056213081317</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>0.2126690432877955</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <v>10.93884788950358</v>
       </c>
-      <c r="I41">
+      <c r="J41">
         <v>-2.08365780203362</v>
+      </c>
+      <c r="K41">
+        <v>8.855190087469961</v>
       </c>
     </row>
     <row r="42">
@@ -44223,26 +44554,34 @@
           <t>Saarland</t>
         </is>
       </c>
-      <c r="C42">
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Mainly urban</t>
+        </is>
+      </c>
+      <c r="D42">
         <v>0.09206637822648864</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>0.09719848607239923</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>0.1846798960396597</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>0.1923818166934215</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>0.1683348292080324</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <v>9.518333062102224</v>
       </c>
-      <c r="I42">
+      <c r="J42">
         <v>-2.404698748538903</v>
+      </c>
+      <c r="K42">
+        <v>7.113634313563322</v>
       </c>
     </row>
     <row r="43">
@@ -44256,26 +44595,34 @@
           <t>Sachsen</t>
         </is>
       </c>
-      <c r="C43">
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Intermediate</t>
+        </is>
+      </c>
+      <c r="D43">
         <v>0.08338128567397017</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>0.09329315554577126</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>0.1261473536690971</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>0.1770075011090386</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>0.1671427497375366</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <v>8.371434556326733</v>
       </c>
-      <c r="I43">
+      <c r="J43">
         <v>-0.9864751371501945</v>
+      </c>
+      <c r="K43">
+        <v>7.384959419176538</v>
       </c>
     </row>
     <row r="44">
@@ -44289,26 +44636,34 @@
           <t>Sachsen-Anhalt</t>
         </is>
       </c>
-      <c r="C44">
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Intermediate</t>
+        </is>
+      </c>
+      <c r="D44">
         <v>0.05522194875952312</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <v>0.06143081162567927</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>0.095598303337977</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>0.1138327292304875</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>0.1244624266212158</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <v>5.240191760480823</v>
       </c>
-      <c r="I44">
+      <c r="J44">
         <v>1.062969739072835</v>
+      </c>
+      <c r="K44">
+        <v>6.303161499553658</v>
       </c>
     </row>
     <row r="45">
@@ -44322,26 +44677,34 @@
           <t>Schleswig-Holstein</t>
         </is>
       </c>
-      <c r="C45">
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Intermediate</t>
+        </is>
+      </c>
+      <c r="D45">
         <v>0.1231744759903771</v>
       </c>
-      <c r="D45">
+      <c r="E45">
         <v>0.1325368323834242</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <v>0.2023764028732126</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>0.2479318866311925</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>0.2245144081052134</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <v>11.53950542477683</v>
       </c>
-      <c r="I45">
+      <c r="J45">
         <v>-2.341747852597917</v>
+      </c>
+      <c r="K45">
+        <v>9.197757572178917</v>
       </c>
     </row>
     <row r="46">
@@ -44355,26 +44718,34 @@
           <t>Thüringen</t>
         </is>
       </c>
-      <c r="C46">
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Intermediate</t>
+        </is>
+      </c>
+      <c r="D46">
         <v>0.08096523377376562</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <v>0.08793009279136378</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>0.1309374800303899</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>0.1495062211290579</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <v>0.1377165202023722</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <v>6.157612833769412</v>
       </c>
-      <c r="I46">
+      <c r="J46">
         <v>-1.178970092668569</v>
+      </c>
+      <c r="K46">
+        <v>4.978642741100843</v>
       </c>
     </row>
     <row r="47">
@@ -44388,26 +44759,34 @@
           <t>Hovedstaden</t>
         </is>
       </c>
-      <c r="C47">
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Capital region</t>
+        </is>
+      </c>
+      <c r="D47">
         <v>0.3325463497581843</v>
       </c>
-      <c r="D47">
+      <c r="E47">
         <v>0.3455464434581836</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>0.445454886469954</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>0.4635127828535645</v>
       </c>
-      <c r="G47">
+      <c r="H47">
         <v>0.4193774620812517</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <v>11.79663393953809</v>
       </c>
-      <c r="I47">
+      <c r="J47">
         <v>-4.41353207723128</v>
+      </c>
+      <c r="K47">
+        <v>7.383101862306807</v>
       </c>
     </row>
     <row r="48">
@@ -44421,26 +44800,34 @@
           <t>Sjælland</t>
         </is>
       </c>
-      <c r="C48">
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Mainly rural</t>
+        </is>
+      </c>
+      <c r="D48">
         <v>0.2567387892363342</v>
       </c>
-      <c r="D48">
+      <c r="E48">
         <v>0.254179278094885</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <v>0.3117359737893262</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>0.326773784821917</v>
       </c>
-      <c r="G48">
+      <c r="H48">
         <v>0.3191686916938244</v>
       </c>
-      <c r="H48">
+      <c r="I48">
         <v>7.259450672703204</v>
       </c>
-      <c r="I48">
+      <c r="J48">
         <v>-0.7605093128092655</v>
+      </c>
+      <c r="K48">
+        <v>6.498941359893939</v>
       </c>
     </row>
     <row r="49">
@@ -44454,26 +44841,34 @@
           <t>Syddanmark</t>
         </is>
       </c>
-      <c r="C49">
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Intermediate</t>
+        </is>
+      </c>
+      <c r="D49">
         <v>0.2474579614221827</v>
       </c>
-      <c r="D49">
+      <c r="E49">
         <v>0.2512520650242625</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <v>0.2926384984624565</v>
       </c>
-      <c r="F49">
+      <c r="G49">
         <v>0.2871899646797506</v>
       </c>
-      <c r="G49">
+      <c r="H49">
         <v>0.2774859988882561</v>
       </c>
-      <c r="H49">
+      <c r="I49">
         <v>3.59378996554881</v>
       </c>
-      <c r="I49">
+      <c r="J49">
         <v>-0.9703965791494518</v>
+      </c>
+      <c r="K49">
+        <v>2.623393386399359</v>
       </c>
     </row>
     <row r="50">
@@ -44487,26 +44882,34 @@
           <t>Midtjylland</t>
         </is>
       </c>
-      <c r="C50">
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Intermediate</t>
+        </is>
+      </c>
+      <c r="D50">
         <v>0.2556826850541669</v>
       </c>
-      <c r="D50">
+      <c r="E50">
         <v>0.2752364930247089</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <v>0.3314283490955609</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>0.3378671936598179</v>
       </c>
-      <c r="G50">
+      <c r="H50">
         <v>0.3141920109728601</v>
       </c>
-      <c r="H50">
+      <c r="I50">
         <v>6.263070063510895</v>
       </c>
-      <c r="I50">
+      <c r="J50">
         <v>-2.367518268695779</v>
+      </c>
+      <c r="K50">
+        <v>3.895551794815116</v>
       </c>
     </row>
     <row r="51">
@@ -44520,26 +44923,34 @@
           <t>Nordjylland</t>
         </is>
       </c>
-      <c r="C51">
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Mainly rural</t>
+        </is>
+      </c>
+      <c r="D51">
         <v>0.228877575991051</v>
       </c>
-      <c r="D51">
+      <c r="E51">
         <v>0.2376061133370891</v>
       </c>
-      <c r="E51">
+      <c r="F51">
         <v>0.273824341703417</v>
       </c>
-      <c r="F51">
+      <c r="G51">
         <v>0.2760842936607566</v>
       </c>
-      <c r="G51">
+      <c r="H51">
         <v>0.2880293638533145</v>
       </c>
-      <c r="H51">
+      <c r="I51">
         <v>3.847818032366751</v>
       </c>
-      <c r="I51">
+      <c r="J51">
         <v>1.194507019255786</v>
+      </c>
+      <c r="K51">
+        <v>5.042325051622537</v>
       </c>
     </row>
     <row r="52">
@@ -44553,26 +44964,34 @@
           <t>Eesti</t>
         </is>
       </c>
-      <c r="C52">
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Whole country</t>
+        </is>
+      </c>
+      <c r="D52">
         <v>0.191884019829782</v>
       </c>
-      <c r="D52">
+      <c r="E52">
         <v>0.1946477636891941</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <v>0.2278721901833679</v>
       </c>
-      <c r="F52">
+      <c r="G52">
         <v>0.2591333820806044</v>
       </c>
-      <c r="G52">
+      <c r="H52">
         <v>0.2485044817091258</v>
       </c>
-      <c r="H52">
+      <c r="I52">
         <v>6.448561839141032</v>
       </c>
-      <c r="I52">
+      <c r="J52">
         <v>-1.062890037147868</v>
+      </c>
+      <c r="K52">
+        <v>5.385671801993164</v>
       </c>
     </row>
     <row r="53">
@@ -44586,26 +45005,34 @@
           <t>Attiki</t>
         </is>
       </c>
-      <c r="C53">
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Capital region</t>
+        </is>
+      </c>
+      <c r="D53">
         <v>0.06589997814569683</v>
       </c>
-      <c r="D53">
+      <c r="E53">
         <v>0.06937791940134699</v>
       </c>
-      <c r="E53">
+      <c r="F53">
         <v>0.1510414393359943</v>
       </c>
-      <c r="F53">
+      <c r="G53">
         <v>0.2200696187452656</v>
       </c>
-      <c r="G53">
+      <c r="H53">
         <v>0.1568884745914515</v>
       </c>
-      <c r="H53">
+      <c r="I53">
         <v>15.06916993439186</v>
       </c>
-      <c r="I53">
+      <c r="J53">
         <v>-6.31811441538141</v>
+      </c>
+      <c r="K53">
+        <v>8.751055519010453</v>
       </c>
     </row>
     <row r="54">
@@ -44619,26 +45046,34 @@
           <t>Voreio Aigaio</t>
         </is>
       </c>
-      <c r="C54">
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Mainly rural</t>
+        </is>
+      </c>
+      <c r="D54">
         <v>0.01714696922295517</v>
       </c>
-      <c r="D54">
+      <c r="E54">
         <v>0.01631159988210941</v>
       </c>
-      <c r="E54">
+      <c r="F54">
         <v>0.05885348968228938</v>
       </c>
-      <c r="F54">
+      <c r="G54">
         <v>0.0792470931426552</v>
       </c>
-      <c r="G54">
+      <c r="H54">
         <v>0.09608648863450077</v>
       </c>
-      <c r="H54">
+      <c r="I54">
         <v>6.293549326054579</v>
       </c>
-      <c r="I54">
+      <c r="J54">
         <v>1.683939549184557</v>
+      </c>
+      <c r="K54">
+        <v>7.977488875239136</v>
       </c>
     </row>
     <row r="55">
@@ -44652,26 +45087,34 @@
           <t>Notio Aigaio</t>
         </is>
       </c>
-      <c r="C55">
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Intermediate</t>
+        </is>
+      </c>
+      <c r="D55">
         <v>0.04250832570734048</v>
       </c>
-      <c r="D55">
+      <c r="E55">
         <v>0.04448450398664887</v>
       </c>
-      <c r="E55">
+      <c r="F55">
         <v>0.1160435536711015</v>
       </c>
-      <c r="F55">
+      <c r="G55">
         <v>0.2416389742461442</v>
       </c>
-      <c r="G55">
+      <c r="H55">
         <v>0.1425717635272608</v>
       </c>
-      <c r="H55">
+      <c r="I55">
         <v>19.71544702594953</v>
       </c>
-      <c r="I55">
+      <c r="J55">
         <v>-9.906721071888342</v>
+      </c>
+      <c r="K55">
+        <v>9.808725954061194</v>
       </c>
     </row>
     <row r="56">
@@ -44685,26 +45128,34 @@
           <t>Kriti</t>
         </is>
       </c>
-      <c r="C56">
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Intermediate</t>
+        </is>
+      </c>
+      <c r="D56">
         <v>0.03441813197237323</v>
       </c>
-      <c r="D56">
+      <c r="E56">
         <v>0.03149848770554304</v>
       </c>
-      <c r="E56">
+      <c r="F56">
         <v>0.07056037630460527</v>
       </c>
-      <c r="F56">
+      <c r="G56">
         <v>0.1335892733844101</v>
       </c>
-      <c r="G56">
+      <c r="H56">
         <v>0.05875365945832699</v>
       </c>
-      <c r="H56">
+      <c r="I56">
         <v>10.20907856788671</v>
       </c>
-      <c r="I56">
+      <c r="J56">
         <v>-7.483561392608311</v>
+      </c>
+      <c r="K56">
+        <v>2.725517175278395</v>
       </c>
     </row>
     <row r="57">
@@ -44718,26 +45169,34 @@
           <t>Anatoliki Makedonia, Thraki</t>
         </is>
       </c>
-      <c r="C57">
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Intermediate</t>
+        </is>
+      </c>
+      <c r="D57">
         <v>0.03208582293227888</v>
       </c>
-      <c r="D57">
+      <c r="E57">
         <v>0.02893507357076274</v>
       </c>
-      <c r="E57">
+      <c r="F57">
         <v>0.05080011100852053</v>
       </c>
-      <c r="F57">
+      <c r="G57">
         <v>0.0944704794361014</v>
       </c>
-      <c r="G57">
+      <c r="H57">
         <v>0.07956860014073376</v>
       </c>
-      <c r="H57">
+      <c r="I57">
         <v>6.553540586533867</v>
       </c>
-      <c r="I57">
+      <c r="J57">
         <v>-1.490187929536764</v>
+      </c>
+      <c r="K57">
+        <v>5.063352656997103</v>
       </c>
     </row>
     <row r="58">
@@ -44751,26 +45210,34 @@
           <t>Kentriki Makedonia</t>
         </is>
       </c>
-      <c r="C58">
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Mainly urban</t>
+        </is>
+      </c>
+      <c r="D58">
         <v>0.08745238157877226</v>
       </c>
-      <c r="D58">
+      <c r="E58">
         <v>0.08782439136459168</v>
       </c>
-      <c r="E58">
+      <c r="F58">
         <v>0.1142547544262354</v>
       </c>
-      <c r="F58">
+      <c r="G58">
         <v>0.1368476192883372</v>
       </c>
-      <c r="G58">
+      <c r="H58">
         <v>0.08377958011691476</v>
       </c>
-      <c r="H58">
+      <c r="I58">
         <v>4.902322792374552</v>
       </c>
-      <c r="I58">
+      <c r="J58">
         <v>-5.306803917142243</v>
+      </c>
+      <c r="K58">
+        <v>-0.4044811247676916</v>
       </c>
     </row>
     <row r="59">
@@ -44784,26 +45251,34 @@
           <t>Dytiki Makedonia</t>
         </is>
       </c>
-      <c r="C59">
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Mainly rural</t>
+        </is>
+      </c>
+      <c r="D59">
         <v>0.01091158010717008</v>
       </c>
-      <c r="D59">
+      <c r="E59">
         <v>0.01101813252901834</v>
       </c>
-      <c r="E59">
+      <c r="F59">
         <v>0.06779354066112483</v>
       </c>
-      <c r="F59">
+      <c r="G59">
         <v>0.04690072565663242</v>
       </c>
-      <c r="G59">
+      <c r="H59">
         <v>0.02575270315846482</v>
       </c>
-      <c r="H59">
+      <c r="I59">
         <v>3.588259312761408</v>
       </c>
-      <c r="I59">
+      <c r="J59">
         <v>-2.11480224981676</v>
+      </c>
+      <c r="K59">
+        <v>1.473457062944648</v>
       </c>
     </row>
     <row r="60">
@@ -44817,26 +45292,34 @@
           <t>Ipeiros</t>
         </is>
       </c>
-      <c r="C60">
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Mainly rural</t>
+        </is>
+      </c>
+      <c r="D60">
         <v>0.009600375275781319</v>
       </c>
-      <c r="D60">
+      <c r="E60">
         <v>0.007965326607210646</v>
       </c>
-      <c r="E60">
+      <c r="F60">
         <v>0.06464517469444089</v>
       </c>
-      <c r="F60">
+      <c r="G60">
         <v>0.08063858113703395</v>
       </c>
-      <c r="G60">
+      <c r="H60">
         <v>0.08835194497254424</v>
       </c>
-      <c r="H60">
+      <c r="I60">
         <v>7.26732545298233</v>
       </c>
-      <c r="I60">
+      <c r="J60">
         <v>0.7713363835510287</v>
+      </c>
+      <c r="K60">
+        <v>8.038661836533359</v>
       </c>
     </row>
     <row r="61">
@@ -44850,26 +45333,34 @@
           <t>Thessalia</t>
         </is>
       </c>
-      <c r="C61">
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Intermediate</t>
+        </is>
+      </c>
+      <c r="D61">
         <v>0.01687694682920671</v>
       </c>
-      <c r="D61">
+      <c r="E61">
         <v>0.01696573684002764</v>
       </c>
-      <c r="E61">
+      <c r="F61">
         <v>0.0405214643031334</v>
       </c>
-      <c r="F61">
+      <c r="G61">
         <v>0.07414800905057251</v>
       </c>
-      <c r="G61">
+      <c r="H61">
         <v>0.04530774514537059</v>
       </c>
-      <c r="H61">
+      <c r="I61">
         <v>5.718227221054486</v>
       </c>
-      <c r="I61">
+      <c r="J61">
         <v>-2.884026390520191</v>
+      </c>
+      <c r="K61">
+        <v>2.834200830534296</v>
       </c>
     </row>
     <row r="62">
@@ -44883,26 +45374,34 @@
           <t>Ionia Nisia</t>
         </is>
       </c>
-      <c r="C62">
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Mainly rural</t>
+        </is>
+      </c>
+      <c r="D62">
         <v>0.05214578574438228</v>
       </c>
-      <c r="D62">
+      <c r="E62">
         <v>0.05630104949645413</v>
       </c>
-      <c r="E62">
+      <c r="F62">
         <v>0.06978287992821486</v>
       </c>
-      <c r="F62">
+      <c r="G62">
         <v>0.04629657528235427</v>
       </c>
-      <c r="G62">
+      <c r="H62">
         <v>0.07007129505918069</v>
       </c>
-      <c r="H62">
+      <c r="I62">
         <v>-1.000447421409986</v>
       </c>
-      <c r="I62">
+      <c r="J62">
         <v>2.377471977682642</v>
+      </c>
+      <c r="K62">
+        <v>1.377024556272656</v>
       </c>
     </row>
     <row r="63">
@@ -44916,26 +45415,34 @@
           <t>Dytiki Elláda</t>
         </is>
       </c>
-      <c r="C63">
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Mainly rural</t>
+        </is>
+      </c>
+      <c r="D63">
         <v>0.04814620035407941</v>
       </c>
-      <c r="D63">
+      <c r="E63">
         <v>0.0424423761196398</v>
       </c>
-      <c r="E63">
+      <c r="F63">
         <v>0.1083848735302392</v>
       </c>
-      <c r="F63">
+      <c r="G63">
         <v>0.05205136613069354</v>
       </c>
-      <c r="G63">
+      <c r="H63">
         <v>0.02819562926452368</v>
       </c>
-      <c r="H63">
+      <c r="I63">
         <v>0.9608990011053746</v>
       </c>
-      <c r="I63">
+      <c r="J63">
         <v>-2.385573686616986</v>
+      </c>
+      <c r="K63">
+        <v>-1.424674685511611</v>
       </c>
     </row>
     <row r="64">
@@ -44949,26 +45456,34 @@
           <t>Sterea Elláda</t>
         </is>
       </c>
-      <c r="C64">
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Mainly rural</t>
+        </is>
+      </c>
+      <c r="D64">
         <v>0.03124821623639578</v>
       </c>
-      <c r="D64">
+      <c r="E64">
         <v>0.0241511119449031</v>
       </c>
-      <c r="E64">
+      <c r="F64">
         <v>0.04829613170287696</v>
       </c>
-      <c r="F64">
+      <c r="G64">
         <v>0.05456515787641453</v>
       </c>
-      <c r="G64">
+      <c r="H64">
         <v>0.02873910211264906</v>
       </c>
-      <c r="H64">
+      <c r="I64">
         <v>3.041404593151143</v>
       </c>
-      <c r="I64">
+      <c r="J64">
         <v>-2.582605576376547</v>
+      </c>
+      <c r="K64">
+        <v>0.4587990167745956</v>
       </c>
     </row>
     <row r="65">
@@ -44982,26 +45497,34 @@
           <t>Peloponnisos</t>
         </is>
       </c>
-      <c r="C65">
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Mainly rural</t>
+        </is>
+      </c>
+      <c r="D65">
         <v>0.02231815186901137</v>
       </c>
-      <c r="D65">
+      <c r="E65">
         <v>0.02780209968795234</v>
       </c>
-      <c r="E65">
+      <c r="F65">
         <v>0.04771475346009845</v>
       </c>
-      <c r="F65">
+      <c r="G65">
         <v>0.09099866500375894</v>
       </c>
-      <c r="G65">
+      <c r="H65">
         <v>0.06315217505508271</v>
       </c>
-      <c r="H65">
+      <c r="I65">
         <v>6.31965653158066</v>
       </c>
-      <c r="I65">
+      <c r="J65">
         <v>-2.784648994867624</v>
+      </c>
+      <c r="K65">
+        <v>3.535007536713036</v>
       </c>
     </row>
     <row r="66">
@@ -45015,26 +45538,34 @@
           <t>Galicia</t>
         </is>
       </c>
-      <c r="C66">
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Intermediate</t>
+        </is>
+      </c>
+      <c r="D66">
         <v>0.08822166856318264</v>
       </c>
-      <c r="D66">
+      <c r="E66">
         <v>0.08861845248627492</v>
       </c>
-      <c r="E66">
+      <c r="F66">
         <v>0.1398545679311296</v>
       </c>
-      <c r="F66">
+      <c r="G66">
         <v>0.1381741666580892</v>
       </c>
-      <c r="G66">
+      <c r="H66">
         <v>0.1249191029743106</v>
       </c>
-      <c r="H66">
+      <c r="I66">
         <v>4.955571417181432</v>
       </c>
-      <c r="I66">
+      <c r="J66">
         <v>-1.325506368377869</v>
+      </c>
+      <c r="K66">
+        <v>3.630065048803563</v>
       </c>
     </row>
     <row r="67">
@@ -45048,26 +45579,34 @@
           <t>Principado de Asturias</t>
         </is>
       </c>
-      <c r="C67">
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Intermediate</t>
+        </is>
+      </c>
+      <c r="D67">
         <v>0.06982880711503286</v>
       </c>
-      <c r="D67">
+      <c r="E67">
         <v>0.1092283817416818</v>
       </c>
-      <c r="E67">
+      <c r="F67">
         <v>0.16850710061786</v>
       </c>
-      <c r="F67">
+      <c r="G67">
         <v>0.139919859621897</v>
       </c>
-      <c r="G67">
+      <c r="H67">
         <v>0.1357679100175416</v>
       </c>
-      <c r="H67">
+      <c r="I67">
         <v>3.069147788021523</v>
       </c>
-      <c r="I67">
+      <c r="J67">
         <v>-0.4151949604355415</v>
+      </c>
+      <c r="K67">
+        <v>2.653952827585981</v>
       </c>
     </row>
     <row r="68">
@@ -45081,26 +45620,34 @@
           <t>Cantabria</t>
         </is>
       </c>
-      <c r="C68">
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Intermediate</t>
+        </is>
+      </c>
+      <c r="D68">
         <v>0.07438001867390469</v>
       </c>
-      <c r="D68">
+      <c r="E68">
         <v>0.07163785674157</v>
       </c>
-      <c r="E68">
+      <c r="F68">
         <v>0.08427316017679649</v>
       </c>
-      <c r="F68">
+      <c r="G68">
         <v>0.1029148093311142</v>
       </c>
-      <c r="G68">
+      <c r="H68">
         <v>0.09284066147208936</v>
       </c>
-      <c r="H68">
+      <c r="I68">
         <v>3.127695258954423</v>
       </c>
-      <c r="I68">
+      <c r="J68">
         <v>-1.007414785902487</v>
+      </c>
+      <c r="K68">
+        <v>2.120280473051936</v>
       </c>
     </row>
     <row r="69">
@@ -45114,26 +45661,34 @@
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="C69">
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Mainly urban</t>
+        </is>
+      </c>
+      <c r="D69">
         <v>0.06654489981424851</v>
       </c>
-      <c r="D69">
+      <c r="E69">
         <v>0.0786057422076193</v>
       </c>
-      <c r="E69">
+      <c r="F69">
         <v>0.1125507564903837</v>
       </c>
-      <c r="F69">
+      <c r="G69">
         <v>0.09328576068497071</v>
       </c>
-      <c r="G69">
+      <c r="H69">
         <v>0.1341704571991609</v>
       </c>
-      <c r="H69">
+      <c r="I69">
         <v>1.468001847735141</v>
       </c>
-      <c r="I69">
+      <c r="J69">
         <v>4.088469651419019</v>
+      </c>
+      <c r="K69">
+        <v>5.55647149915416</v>
       </c>
     </row>
     <row r="70">
@@ -45147,26 +45702,34 @@
           <t>Comunidad Foral de Navarra</t>
         </is>
       </c>
-      <c r="C70">
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Intermediate</t>
+        </is>
+      </c>
+      <c r="D70">
         <v>0.06936576715997769</v>
       </c>
-      <c r="D70">
+      <c r="E70">
         <v>0.06636084459643077</v>
       </c>
-      <c r="E70">
+      <c r="F70">
         <v>0.1155191648283609</v>
       </c>
-      <c r="F70">
+      <c r="G70">
         <v>0.1077194725065986</v>
       </c>
-      <c r="G70">
+      <c r="H70">
         <v>0.09267050801432616</v>
       </c>
-      <c r="H70">
+      <c r="I70">
         <v>4.135862791016779</v>
       </c>
-      <c r="I70">
+      <c r="J70">
         <v>-1.504896449227239</v>
+      </c>
+      <c r="K70">
+        <v>2.63096634178954</v>
       </c>
     </row>
     <row r="71">
@@ -45180,26 +45743,34 @@
           <t>La Rioja</t>
         </is>
       </c>
-      <c r="C71">
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Intermediate</t>
+        </is>
+      </c>
+      <c r="D71">
         <v>0.08105625505990845</v>
       </c>
-      <c r="D71">
+      <c r="E71">
         <v>0.06135551086265596</v>
       </c>
-      <c r="E71">
+      <c r="F71">
         <v>0.1328645149276184</v>
       </c>
-      <c r="F71">
+      <c r="G71">
         <v>0.1008207406877992</v>
       </c>
-      <c r="G71">
+      <c r="H71">
         <v>0.07560004408434003</v>
       </c>
-      <c r="H71">
+      <c r="I71">
         <v>3.946522982514328</v>
       </c>
-      <c r="I71">
+      <c r="J71">
         <v>-2.522069660345921</v>
+      </c>
+      <c r="K71">
+        <v>1.424453322168406</v>
       </c>
     </row>
     <row r="72">
@@ -45213,26 +45784,34 @@
           <t>Aragón</t>
         </is>
       </c>
-      <c r="C72">
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Mainly urban</t>
+        </is>
+      </c>
+      <c r="D72">
         <v>0.07821049062966667</v>
       </c>
-      <c r="D72">
+      <c r="E72">
         <v>0.09762046433443933</v>
       </c>
-      <c r="E72">
+      <c r="F72">
         <v>0.127312243071258</v>
       </c>
-      <c r="F72">
+      <c r="G72">
         <v>0.1305687032060753</v>
       </c>
-      <c r="G72">
+      <c r="H72">
         <v>0.1127686428842362</v>
       </c>
-      <c r="H72">
+      <c r="I72">
         <v>3.2948238871636</v>
       </c>
-      <c r="I72">
+      <c r="J72">
         <v>-1.780006032183909</v>
+      </c>
+      <c r="K72">
+        <v>1.514817854979691</v>
       </c>
     </row>
     <row r="73">
@@ -45246,26 +45825,34 @@
           <t>Comunidad de Madrid</t>
         </is>
       </c>
-      <c r="C73">
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Capital region</t>
+        </is>
+      </c>
+      <c r="D73">
         <v>0.08331643812715597</v>
       </c>
-      <c r="D73">
+      <c r="E73">
         <v>0.08394664091839292</v>
       </c>
-      <c r="E73">
+      <c r="F73">
         <v>0.2525437923761309</v>
       </c>
-      <c r="F73">
+      <c r="G73">
         <v>0.2431322234642844</v>
       </c>
-      <c r="G73">
+      <c r="H73">
         <v>0.2196382531245051</v>
       </c>
-      <c r="H73">
+      <c r="I73">
         <v>15.91855825458915</v>
       </c>
-      <c r="I73">
+      <c r="J73">
         <v>-2.349397033977932</v>
+      </c>
+      <c r="K73">
+        <v>13.56916122061122</v>
       </c>
     </row>
     <row r="74">
@@ -45279,26 +45866,34 @@
           <t>Castilla y León</t>
         </is>
       </c>
-      <c r="C74">
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Intermediate</t>
+        </is>
+      </c>
+      <c r="D74">
         <v>0.07077703935249914</v>
       </c>
-      <c r="D74">
+      <c r="E74">
         <v>0.0859070360970218</v>
       </c>
-      <c r="E74">
+      <c r="F74">
         <v>0.1131288996000471</v>
       </c>
-      <c r="F74">
+      <c r="G74">
         <v>0.1216564962460921</v>
       </c>
-      <c r="G74">
+      <c r="H74">
         <v>0.09867283820419272</v>
       </c>
-      <c r="H74">
+      <c r="I74">
         <v>3.574946014907032</v>
       </c>
-      <c r="I74">
+      <c r="J74">
         <v>-2.29836580418994</v>
+      </c>
+      <c r="K74">
+        <v>1.276580210717092</v>
       </c>
     </row>
     <row r="75">
@@ -45312,26 +45907,34 @@
           <t>Castilla-La Mancha</t>
         </is>
       </c>
-      <c r="C75">
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Intermediate</t>
+        </is>
+      </c>
+      <c r="D75">
         <v>0.06818135625182789</v>
       </c>
-      <c r="D75">
+      <c r="E75">
         <v>0.07504397148720353</v>
       </c>
-      <c r="E75">
+      <c r="F75">
         <v>0.1094174256317594</v>
       </c>
-      <c r="F75">
+      <c r="G75">
         <v>0.1174363936956854</v>
       </c>
-      <c r="G75">
+      <c r="H75">
         <v>0.09247496075483476</v>
       </c>
-      <c r="H75">
+      <c r="I75">
         <v>4.239242220848189</v>
       </c>
-      <c r="I75">
+      <c r="J75">
         <v>-2.496143294085065</v>
+      </c>
+      <c r="K75">
+        <v>1.743098926763123</v>
       </c>
     </row>
     <row r="76">
@@ -45345,26 +45948,34 @@
           <t>Extremadura</t>
         </is>
       </c>
-      <c r="C76">
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Intermediate</t>
+        </is>
+      </c>
+      <c r="D76">
         <v>0.09179088992245897</v>
       </c>
-      <c r="D76">
+      <c r="E76">
         <v>0.07931724907141501</v>
       </c>
-      <c r="E76">
+      <c r="F76">
         <v>0.1279080640397076</v>
       </c>
-      <c r="F76">
+      <c r="G76">
         <v>0.1212863696241554</v>
       </c>
-      <c r="G76">
+      <c r="H76">
         <v>0.09688393260256203</v>
       </c>
-      <c r="H76">
+      <c r="I76">
         <v>4.196912055274043</v>
       </c>
-      <c r="I76">
+      <c r="J76">
         <v>-2.440243702159341</v>
+      </c>
+      <c r="K76">
+        <v>1.756668353114703</v>
       </c>
     </row>
     <row r="77">
@@ -45378,26 +45989,34 @@
           <t>Cataluña</t>
         </is>
       </c>
-      <c r="C77">
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Mainly urban</t>
+        </is>
+      </c>
+      <c r="D77">
         <v>0.07147347760754673</v>
       </c>
-      <c r="D77">
+      <c r="E77">
         <v>0.08647002945246157</v>
       </c>
-      <c r="E77">
+      <c r="F77">
         <v>0.1791055357297255</v>
       </c>
-      <c r="F77">
+      <c r="G77">
         <v>0.190046292579564</v>
       </c>
-      <c r="G77">
+      <c r="H77">
         <v>0.1617257339460928</v>
       </c>
-      <c r="H77">
+      <c r="I77">
         <v>10.35762631271024</v>
       </c>
-      <c r="I77">
+      <c r="J77">
         <v>-2.832055863347116</v>
+      </c>
+      <c r="K77">
+        <v>7.525570449363123</v>
       </c>
     </row>
     <row r="78">
@@ -45411,26 +46030,34 @@
           <t>Comunitat Valenciana</t>
         </is>
       </c>
-      <c r="C78">
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Mainly urban</t>
+        </is>
+      </c>
+      <c r="D78">
         <v>0.08450142623631539</v>
       </c>
-      <c r="D78">
+      <c r="E78">
         <v>0.08597021728974141</v>
       </c>
-      <c r="E78">
+      <c r="F78">
         <v>0.1293136395086573</v>
       </c>
-      <c r="F78">
+      <c r="G78">
         <v>0.1278018086406606</v>
       </c>
-      <c r="G78">
+      <c r="H78">
         <v>0.1305410235133451</v>
       </c>
-      <c r="H78">
+      <c r="I78">
         <v>4.183159135091918</v>
       </c>
-      <c r="I78">
+      <c r="J78">
         <v>0.2739214872684498</v>
+      </c>
+      <c r="K78">
+        <v>4.457080622360368</v>
       </c>
     </row>
     <row r="79">
@@ -45444,26 +46071,34 @@
           <t>Illes Balears</t>
         </is>
       </c>
-      <c r="C79">
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Mainly urban</t>
+        </is>
+      </c>
+      <c r="D79">
         <v>0.06546877024207795</v>
       </c>
-      <c r="D79">
+      <c r="E79">
         <v>0.1109799457525892</v>
       </c>
-      <c r="E79">
+      <c r="F79">
         <v>0.1397777693840379</v>
       </c>
-      <c r="F79">
+      <c r="G79">
         <v>0.125397838786372</v>
       </c>
-      <c r="G79">
+      <c r="H79">
         <v>0.1274133335244073</v>
       </c>
-      <c r="H79">
+      <c r="I79">
         <v>1.441789303378287</v>
       </c>
-      <c r="I79">
+      <c r="J79">
         <v>0.2015494738035306</v>
+      </c>
+      <c r="K79">
+        <v>1.643338777181817</v>
       </c>
     </row>
     <row r="80">
@@ -45477,26 +46112,34 @@
           <t>Andalucía</t>
         </is>
       </c>
-      <c r="C80">
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Mainly urban</t>
+        </is>
+      </c>
+      <c r="D80">
         <v>0.06836409236750753</v>
       </c>
-      <c r="D80">
+      <c r="E80">
         <v>0.07968261192081269</v>
       </c>
-      <c r="E80">
+      <c r="F80">
         <v>0.1170133548053916</v>
       </c>
-      <c r="F80">
+      <c r="G80">
         <v>0.1309962430456163</v>
       </c>
-      <c r="G80">
+      <c r="H80">
         <v>0.1182918541645627</v>
       </c>
-      <c r="H80">
+      <c r="I80">
         <v>5.131363112480364</v>
       </c>
-      <c r="I80">
+      <c r="J80">
         <v>-1.270438888105366</v>
+      </c>
+      <c r="K80">
+        <v>3.860924224374998</v>
       </c>
     </row>
     <row r="81">
@@ -45510,26 +46153,34 @@
           <t>Región de Murcia</t>
         </is>
       </c>
-      <c r="C81">
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Mainly urban</t>
+        </is>
+      </c>
+      <c r="D81">
         <v>0.0743832870619945</v>
       </c>
-      <c r="D81">
+      <c r="E81">
         <v>0.07311781155253828</v>
       </c>
-      <c r="E81">
+      <c r="F81">
         <v>0.1144792390448747</v>
       </c>
-      <c r="F81">
+      <c r="G81">
         <v>0.1111006633476048</v>
       </c>
-      <c r="G81">
+      <c r="H81">
         <v>0.1092913488930584</v>
       </c>
-      <c r="H81">
+      <c r="I81">
         <v>3.798285179506654</v>
       </c>
-      <c r="I81">
+      <c r="J81">
         <v>-0.1809314454546421</v>
+      </c>
+      <c r="K81">
+        <v>3.617353734052012</v>
       </c>
     </row>
     <row r="82">
@@ -45543,26 +46194,34 @@
           <t>Ciudad de Ceuta</t>
         </is>
       </c>
-      <c r="C82">
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Mainly urban</t>
+        </is>
+      </c>
+      <c r="D82">
         <v>0.08283299257443925</v>
       </c>
-      <c r="D82">
+      <c r="E82">
         <v>0.1234531045966317</v>
       </c>
-      <c r="E82">
+      <c r="F82">
         <v>0.0864107430372323</v>
       </c>
-      <c r="F82">
+      <c r="G82">
         <v>0.08855575349157951</v>
       </c>
-      <c r="G82">
+      <c r="H82">
         <v>0.06869239743878054</v>
       </c>
-      <c r="H82">
+      <c r="I82">
         <v>-3.489735110505221</v>
       </c>
-      <c r="I82">
+      <c r="J82">
         <v>-1.986335605279897</v>
+      </c>
+      <c r="K82">
+        <v>-5.476070715785118</v>
       </c>
     </row>
     <row r="83">
@@ -45576,26 +46235,34 @@
           <t>Ciudad de Melilla</t>
         </is>
       </c>
-      <c r="C83">
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Intermediate</t>
+        </is>
+      </c>
+      <c r="D83">
         <v>0.06844006928207234</v>
       </c>
-      <c r="D83">
+      <c r="E83">
         <v>0.07687732066425257</v>
       </c>
-      <c r="E83">
+      <c r="F83">
         <v>0.170042175701646</v>
       </c>
-      <c r="F83">
+      <c r="G83">
         <v>0.1466944872887801</v>
       </c>
-      <c r="G83">
+      <c r="H83">
         <v>0.1179792234565054</v>
       </c>
-      <c r="H83">
+      <c r="I83">
         <v>6.981716662452753</v>
       </c>
-      <c r="I83">
+      <c r="J83">
         <v>-2.87152638322747</v>
+      </c>
+      <c r="K83">
+        <v>4.110190279225283</v>
       </c>
     </row>
     <row r="84">
@@ -45609,26 +46276,34 @@
           <t>Canarias</t>
         </is>
       </c>
-      <c r="C84">
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Mainly urban</t>
+        </is>
+      </c>
+      <c r="D84">
         <v>0.05927056922585938</v>
       </c>
-      <c r="D84">
+      <c r="E84">
         <v>0.06333058491890962</v>
       </c>
-      <c r="E84">
+      <c r="F84">
         <v>0.09364070429854587</v>
       </c>
-      <c r="F84">
+      <c r="G84">
         <v>0.1241565720872831</v>
       </c>
-      <c r="G84">
+      <c r="H84">
         <v>0.1072856079354341</v>
       </c>
-      <c r="H84">
+      <c r="I84">
         <v>6.082598716837344</v>
       </c>
-      <c r="I84">
+      <c r="J84">
         <v>-1.687096415184894</v>
+      </c>
+      <c r="K84">
+        <v>4.39550230165245</v>
       </c>
     </row>
     <row r="85">
@@ -45642,26 +46317,34 @@
           <t>Länsi-Suomi</t>
         </is>
       </c>
-      <c r="C85">
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Mainly rural</t>
+        </is>
+      </c>
+      <c r="D85">
         <v>0.2756250366625915</v>
       </c>
-      <c r="D85">
+      <c r="E85">
         <v>0.2882717490974406</v>
       </c>
-      <c r="E85">
+      <c r="F85">
         <v>0.3465051699474959</v>
       </c>
-      <c r="F85">
+      <c r="G85">
         <v>0.3725298483006447</v>
       </c>
-      <c r="G85">
+      <c r="H85">
         <v>0.3595963601161357</v>
       </c>
-      <c r="H85">
+      <c r="I85">
         <v>8.425809920320404</v>
       </c>
-      <c r="I85">
+      <c r="J85">
         <v>-1.293348818450896</v>
+      </c>
+      <c r="K85">
+        <v>7.132461101869509</v>
       </c>
     </row>
     <row r="86">
@@ -45675,26 +46358,34 @@
           <t>Helsinki-Uusimaa</t>
         </is>
       </c>
-      <c r="C86">
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Capital region</t>
+        </is>
+      </c>
+      <c r="D86">
         <v>0.397296467078225</v>
       </c>
-      <c r="D86">
+      <c r="E86">
         <v>0.4191528402453287</v>
       </c>
-      <c r="E86">
+      <c r="F86">
         <v>0.5166806511525902</v>
       </c>
-      <c r="F86">
+      <c r="G86">
         <v>0.5287105033539387</v>
       </c>
-      <c r="G86">
+      <c r="H86">
         <v>0.5282432012389889</v>
       </c>
-      <c r="H86">
+      <c r="I86">
         <v>10.955766310861</v>
       </c>
-      <c r="I86">
+      <c r="J86">
         <v>-0.04673021149497192</v>
+      </c>
+      <c r="K86">
+        <v>10.90903609936603</v>
       </c>
     </row>
     <row r="87">
@@ -45708,26 +46399,34 @@
           <t>Etelä-Suomi</t>
         </is>
       </c>
-      <c r="C87">
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Intermediate</t>
+        </is>
+      </c>
+      <c r="D87">
         <v>0.2723949720848761</v>
       </c>
-      <c r="D87">
+      <c r="E87">
         <v>0.2766466048095829</v>
       </c>
-      <c r="E87">
+      <c r="F87">
         <v>0.3460451139625827</v>
       </c>
-      <c r="F87">
+      <c r="G87">
         <v>0.3527961944841185</v>
       </c>
-      <c r="G87">
+      <c r="H87">
         <v>0.3424650313937065</v>
       </c>
-      <c r="H87">
+      <c r="I87">
         <v>7.614958967453567</v>
       </c>
-      <c r="I87">
+      <c r="J87">
         <v>-1.033116309041204</v>
+      </c>
+      <c r="K87">
+        <v>6.581842658412363</v>
       </c>
     </row>
     <row r="88">
@@ -45741,26 +46440,34 @@
           <t>Pohjois- ja Itä-Suomi</t>
         </is>
       </c>
-      <c r="C88">
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Mainly rural</t>
+        </is>
+      </c>
+      <c r="D88">
         <v>0.243214218181701</v>
       </c>
-      <c r="D88">
+      <c r="E88">
         <v>0.2471805860529785</v>
       </c>
-      <c r="E88">
+      <c r="F88">
         <v>0.3077692618632121</v>
       </c>
-      <c r="F88">
+      <c r="G88">
         <v>0.3380493817298392</v>
       </c>
-      <c r="G88">
+      <c r="H88">
         <v>0.3208459249801228</v>
       </c>
-      <c r="H88">
+      <c r="I88">
         <v>9.086879567686069</v>
       </c>
-      <c r="I88">
+      <c r="J88">
         <v>-1.720345674971641</v>
+      </c>
+      <c r="K88">
+        <v>7.366533892714427</v>
       </c>
     </row>
     <row r="89">
@@ -45774,26 +46481,34 @@
           <t>Åland</t>
         </is>
       </c>
-      <c r="C89">
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Mainly rural</t>
+        </is>
+      </c>
+      <c r="D89">
         <v>0.2612246540942378</v>
       </c>
-      <c r="D89">
+      <c r="E89">
         <v>0.2422192180013849</v>
       </c>
-      <c r="E89">
+      <c r="F89">
         <v>0.2074582541272781</v>
       </c>
-      <c r="F89">
+      <c r="G89">
         <v>0.3080386217658812</v>
       </c>
-      <c r="G89">
+      <c r="H89">
         <v>0.3210924515608642</v>
       </c>
-      <c r="H89">
+      <c r="I89">
         <v>6.581940376449635</v>
       </c>
-      <c r="I89">
+      <c r="J89">
         <v>1.305382979498304</v>
+      </c>
+      <c r="K89">
+        <v>7.88732335594794</v>
       </c>
     </row>
     <row r="90">
@@ -45807,26 +46522,34 @@
           <t>Ile-de-France</t>
         </is>
       </c>
-      <c r="C90">
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Capital region</t>
+        </is>
+      </c>
+      <c r="D90">
         <v>0.2628319470035247</v>
       </c>
-      <c r="D90">
+      <c r="E90">
         <v>0.2893675095502649</v>
       </c>
-      <c r="E90">
+      <c r="F90">
         <v>0.3891140143021814</v>
       </c>
-      <c r="F90">
+      <c r="G90">
         <v>0.4830330696218206</v>
       </c>
-      <c r="G90">
+      <c r="H90">
         <v>0.4674656205187651</v>
       </c>
-      <c r="H90">
+      <c r="I90">
         <v>19.36655600715557</v>
       </c>
-      <c r="I90">
+      <c r="J90">
         <v>-1.556744910305546</v>
+      </c>
+      <c r="K90">
+        <v>17.80981109685002</v>
       </c>
     </row>
     <row r="91">
@@ -45840,26 +46563,34 @@
           <t>Centre — Val de Loire</t>
         </is>
       </c>
-      <c r="C91">
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Mainly rural</t>
+        </is>
+      </c>
+      <c r="D91">
         <v>0.1767671263933459</v>
       </c>
-      <c r="D91">
+      <c r="E91">
         <v>0.2076310465454576</v>
       </c>
-      <c r="E91">
+      <c r="F91">
         <v>0.2653222737637371</v>
       </c>
-      <c r="F91">
+      <c r="G91">
         <v>0.283332139324794</v>
       </c>
-      <c r="G91">
+      <c r="H91">
         <v>0.2870871592080514</v>
       </c>
-      <c r="H91">
+      <c r="I91">
         <v>7.570109277933631</v>
       </c>
-      <c r="I91">
+      <c r="J91">
         <v>0.3755019883257493</v>
+      </c>
+      <c r="K91">
+        <v>7.945611266259381</v>
       </c>
     </row>
     <row r="92">
@@ -45873,26 +46604,34 @@
           <t>Bourgogne</t>
         </is>
       </c>
-      <c r="C92">
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Mainly rural</t>
+        </is>
+      </c>
+      <c r="D92">
         <v>0.1920288758847603</v>
       </c>
-      <c r="D92">
+      <c r="E92">
         <v>0.2312691042067085</v>
       </c>
-      <c r="E92">
+      <c r="F92">
         <v>0.2450133309884826</v>
       </c>
-      <c r="F92">
+      <c r="G92">
         <v>0.2720361755263085</v>
       </c>
-      <c r="G92">
+      <c r="H92">
         <v>0.2942985349708125</v>
       </c>
-      <c r="H92">
+      <c r="I92">
         <v>4.076707131960005</v>
       </c>
-      <c r="I92">
+      <c r="J92">
         <v>2.226235944450394</v>
+      </c>
+      <c r="K92">
+        <v>6.3029430764104</v>
       </c>
     </row>
     <row r="93">
@@ -45906,26 +46645,34 @@
           <t>Franche-Comté</t>
         </is>
       </c>
-      <c r="C93">
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Intermediate</t>
+        </is>
+      </c>
+      <c r="D93">
         <v>0.1727071156123574</v>
       </c>
-      <c r="D93">
+      <c r="E93">
         <v>0.191203847597017</v>
       </c>
-      <c r="E93">
+      <c r="F93">
         <v>0.2673105152028517</v>
       </c>
-      <c r="F93">
+      <c r="G93">
         <v>0.2821124473313983</v>
       </c>
-      <c r="G93">
+      <c r="H93">
         <v>0.2976298726835808</v>
       </c>
-      <c r="H93">
+      <c r="I93">
         <v>9.090859973438132</v>
       </c>
-      <c r="I93">
+      <c r="J93">
         <v>1.551742535218248</v>
+      </c>
+      <c r="K93">
+        <v>10.64260250865638</v>
       </c>
     </row>
     <row r="94">
@@ -45939,26 +46686,34 @@
           <t>Basse-Normandie</t>
         </is>
       </c>
-      <c r="C94">
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Mainly rural</t>
+        </is>
+      </c>
+      <c r="D94">
         <v>0.1724427412523113</v>
       </c>
-      <c r="D94">
+      <c r="E94">
         <v>0.1780649711530746</v>
       </c>
-      <c r="E94">
+      <c r="F94">
         <v>0.2695500565300402</v>
       </c>
-      <c r="F94">
+      <c r="G94">
         <v>0.2791103413362104</v>
       </c>
-      <c r="G94">
+      <c r="H94">
         <v>0.2673690387205015</v>
       </c>
-      <c r="H94">
+      <c r="I94">
         <v>10.10453701831358</v>
       </c>
-      <c r="I94">
+      <c r="J94">
         <v>-1.174130261570888</v>
+      </c>
+      <c r="K94">
+        <v>8.930406756742688</v>
       </c>
     </row>
     <row r="95">
@@ -45972,26 +46727,34 @@
           <t>Haute-Normandie</t>
         </is>
       </c>
-      <c r="C95">
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Intermediate</t>
+        </is>
+      </c>
+      <c r="D95">
         <v>0.1687296008111092</v>
       </c>
-      <c r="D95">
+      <c r="E95">
         <v>0.206116419104549</v>
       </c>
-      <c r="E95">
+      <c r="F95">
         <v>0.2904349199140969</v>
       </c>
-      <c r="F95">
+      <c r="G95">
         <v>0.2943529675468113</v>
       </c>
-      <c r="G95">
+      <c r="H95">
         <v>0.2987300473048154</v>
       </c>
-      <c r="H95">
+      <c r="I95">
         <v>8.823654844226237</v>
       </c>
-      <c r="I95">
+      <c r="J95">
         <v>0.4377079758004054</v>
+      </c>
+      <c r="K95">
+        <v>9.261362820026642</v>
       </c>
     </row>
     <row r="96">
@@ -46005,26 +46768,34 @@
           <t>Nord-Pas de Calais</t>
         </is>
       </c>
-      <c r="C96">
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Mainly urban</t>
+        </is>
+      </c>
+      <c r="D96">
         <v>0.2119773426385494</v>
       </c>
-      <c r="D96">
+      <c r="E96">
         <v>0.2030757834115605</v>
       </c>
-      <c r="E96">
+      <c r="F96">
         <v>0.2196393825822738</v>
       </c>
-      <c r="F96">
+      <c r="G96">
         <v>0.3257404888085454</v>
       </c>
-      <c r="G96">
+      <c r="H96">
         <v>0.2696672131870655</v>
       </c>
-      <c r="H96">
+      <c r="I96">
         <v>12.2664705396985</v>
       </c>
-      <c r="I96">
+      <c r="J96">
         <v>-5.60732756214799</v>
+      </c>
+      <c r="K96">
+        <v>6.659142977550506</v>
       </c>
     </row>
     <row r="97">
@@ -46038,26 +46809,34 @@
           <t>Picardie</t>
         </is>
       </c>
-      <c r="C97">
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Mainly rural</t>
+        </is>
+      </c>
+      <c r="D97">
         <v>0.1637565229709279</v>
       </c>
-      <c r="D97">
+      <c r="E97">
         <v>0.1752902455901103</v>
       </c>
-      <c r="E97">
+      <c r="F97">
         <v>0.2240001487771389</v>
       </c>
-      <c r="F97">
+      <c r="G97">
         <v>0.2631568303212781</v>
       </c>
-      <c r="G97">
+      <c r="H97">
         <v>0.2562694012045585</v>
       </c>
-      <c r="H97">
+      <c r="I97">
         <v>8.786658473116779</v>
       </c>
-      <c r="I97">
+      <c r="J97">
         <v>-0.6887429116719523</v>
+      </c>
+      <c r="K97">
+        <v>8.097915561444827</v>
       </c>
     </row>
     <row r="98">
@@ -46071,26 +46850,34 @@
           <t>Alsace</t>
         </is>
       </c>
-      <c r="C98">
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Intermediate</t>
+        </is>
+      </c>
+      <c r="D98">
         <v>0.1916371516390497</v>
       </c>
-      <c r="D98">
+      <c r="E98">
         <v>0.2032223316377473</v>
       </c>
-      <c r="E98">
+      <c r="F98">
         <v>0.2777183892778718</v>
       </c>
-      <c r="F98">
+      <c r="G98">
         <v>0.3317006446147137</v>
       </c>
-      <c r="G98">
+      <c r="H98">
         <v>0.3500224910299298</v>
       </c>
-      <c r="H98">
+      <c r="I98">
         <v>12.84783129769664</v>
       </c>
-      <c r="I98">
+      <c r="J98">
         <v>1.832184641521611</v>
+      </c>
+      <c r="K98">
+        <v>14.68001593921825</v>
       </c>
     </row>
     <row r="99">
@@ -46104,26 +46891,34 @@
           <t>Champagne-Ardenne</t>
         </is>
       </c>
-      <c r="C99">
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Intermediate</t>
+        </is>
+      </c>
+      <c r="D99">
         <v>0.1811478502372033</v>
       </c>
-      <c r="D99">
+      <c r="E99">
         <v>0.201272983372723</v>
       </c>
-      <c r="E99">
+      <c r="F99">
         <v>0.187121763592098</v>
       </c>
-      <c r="F99">
+      <c r="G99">
         <v>0.2684239949184516</v>
       </c>
-      <c r="G99">
+      <c r="H99">
         <v>0.2269155248495282</v>
       </c>
-      <c r="H99">
+      <c r="I99">
         <v>6.715101154572864</v>
       </c>
-      <c r="I99">
+      <c r="J99">
         <v>-4.150847006892342</v>
+      </c>
+      <c r="K99">
+        <v>2.564254147680523</v>
       </c>
     </row>
     <row r="100">
@@ -46137,26 +46932,34 @@
           <t>Lorraine</t>
         </is>
       </c>
-      <c r="C100">
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Intermediate</t>
+        </is>
+      </c>
+      <c r="D100">
         <v>0.1561751033138457</v>
       </c>
-      <c r="D100">
+      <c r="E100">
         <v>0.1986884886942125</v>
       </c>
-      <c r="E100">
+      <c r="F100">
         <v>0.2599265451261393</v>
       </c>
-      <c r="F100">
+      <c r="G100">
         <v>0.231460639057696</v>
       </c>
-      <c r="G100">
+      <c r="H100">
         <v>0.2616978805120861</v>
       </c>
-      <c r="H100">
+      <c r="I100">
         <v>3.277215036348344</v>
       </c>
-      <c r="I100">
+      <c r="J100">
         <v>3.023724145439011</v>
+      </c>
+      <c r="K100">
+        <v>6.300939181787355</v>
       </c>
     </row>
     <row r="101">
@@ -46170,26 +46973,34 @@
           <t>Pays de la Loire</t>
         </is>
       </c>
-      <c r="C101">
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Mainly rural</t>
+        </is>
+      </c>
+      <c r="D101">
         <v>0.1812358391763149</v>
       </c>
-      <c r="D101">
+      <c r="E101">
         <v>0.2233460116959211</v>
       </c>
-      <c r="E101">
+      <c r="F101">
         <v>0.262983829085088</v>
       </c>
-      <c r="F101">
+      <c r="G101">
         <v>0.2925454850174146</v>
       </c>
-      <c r="G101">
+      <c r="H101">
         <v>0.3121035249630699</v>
       </c>
-      <c r="H101">
+      <c r="I101">
         <v>6.919947332149345</v>
       </c>
-      <c r="I101">
+      <c r="J101">
         <v>1.95580399456553</v>
+      </c>
+      <c r="K101">
+        <v>8.875751326714877</v>
       </c>
     </row>
     <row r="102">
@@ -46203,26 +47014,34 @@
           <t>Bretagne</t>
         </is>
       </c>
-      <c r="C102">
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Mainly rural</t>
+        </is>
+      </c>
+      <c r="D102">
         <v>0.1763106140696496</v>
       </c>
-      <c r="D102">
+      <c r="E102">
         <v>0.2163269865194448</v>
       </c>
-      <c r="E102">
+      <c r="F102">
         <v>0.2504983978224212</v>
       </c>
-      <c r="F102">
+      <c r="G102">
         <v>0.3205493407607953</v>
       </c>
-      <c r="G102">
+      <c r="H102">
         <v>0.3030871249458582</v>
       </c>
-      <c r="H102">
+      <c r="I102">
         <v>10.42223542413505</v>
       </c>
-      <c r="I102">
+      <c r="J102">
         <v>-1.746221581493712</v>
+      </c>
+      <c r="K102">
+        <v>8.676013842641334</v>
       </c>
     </row>
     <row r="103">
@@ -46236,26 +47055,34 @@
           <t>Aquitaine</t>
         </is>
       </c>
-      <c r="C103">
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Mainly urban</t>
+        </is>
+      </c>
+      <c r="D103">
         <v>0.2058955702953241</v>
       </c>
-      <c r="D103">
+      <c r="E103">
         <v>0.2255905147850417</v>
       </c>
-      <c r="E103">
+      <c r="F103">
         <v>0.2909352762683861</v>
       </c>
-      <c r="F103">
+      <c r="G103">
         <v>0.298628601856341</v>
       </c>
-      <c r="G103">
+      <c r="H103">
         <v>0.3395564104078505</v>
       </c>
-      <c r="H103">
+      <c r="I103">
         <v>7.303808707129936</v>
       </c>
-      <c r="I103">
+      <c r="J103">
         <v>4.092780855150946</v>
+      </c>
+      <c r="K103">
+        <v>11.39658956228088</v>
       </c>
     </row>
     <row r="104">
@@ -46269,26 +47096,34 @@
           <t>Limousin</t>
         </is>
       </c>
-      <c r="C104">
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Mainly rural</t>
+        </is>
+      </c>
+      <c r="D104">
         <v>0.2059702404407724</v>
       </c>
-      <c r="D104">
+      <c r="E104">
         <v>0.2309124886215</v>
       </c>
-      <c r="E104">
+      <c r="F104">
         <v>0.2510427327911112</v>
       </c>
-      <c r="F104">
+      <c r="G104">
         <v>0.2940398611953683</v>
       </c>
-      <c r="G104">
+      <c r="H104">
         <v>0.3131645099053652</v>
       </c>
-      <c r="H104">
+      <c r="I104">
         <v>6.312737257386838</v>
       </c>
-      <c r="I104">
+      <c r="J104">
         <v>1.912464870999686</v>
+      </c>
+      <c r="K104">
+        <v>8.225202128386524</v>
       </c>
     </row>
     <row r="105">
@@ -46302,26 +47137,34 @@
           <t>Poitou-Charentes</t>
         </is>
       </c>
-      <c r="C105">
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Mainly rural</t>
+        </is>
+      </c>
+      <c r="D105">
         <v>0.170125645054338</v>
       </c>
-      <c r="D105">
+      <c r="E105">
         <v>0.1998731976167932</v>
       </c>
-      <c r="E105">
+      <c r="F105">
         <v>0.2693981151239773</v>
       </c>
-      <c r="F105">
+      <c r="G105">
         <v>0.3163378696686878</v>
       </c>
-      <c r="G105">
+      <c r="H105">
         <v>0.2956901116965982</v>
       </c>
-      <c r="H105">
+      <c r="I105">
         <v>11.64646720518945</v>
       </c>
-      <c r="I105">
+      <c r="J105">
         <v>-2.064775797208957</v>
+      </c>
+      <c r="K105">
+        <v>9.581691407980497</v>
       </c>
     </row>
     <row r="106">
@@ -46335,26 +47178,34 @@
           <t>Languedoc-Roussillon</t>
         </is>
       </c>
-      <c r="C106">
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Intermediate</t>
+        </is>
+      </c>
+      <c r="D106">
         <v>0.2014440432087609</v>
       </c>
-      <c r="D106">
+      <c r="E106">
         <v>0.2338480167574957</v>
       </c>
-      <c r="E106">
+      <c r="F106">
         <v>0.301330609989736</v>
       </c>
-      <c r="F106">
+      <c r="G106">
         <v>0.365329876053838</v>
       </c>
-      <c r="G106">
+      <c r="H106">
         <v>0.3290244567654568</v>
       </c>
-      <c r="H106">
+      <c r="I106">
         <v>13.14818592963423</v>
       </c>
-      <c r="I106">
+      <c r="J106">
         <v>-3.630541928838116</v>
+      </c>
+      <c r="K106">
+        <v>9.517644000796116</v>
       </c>
     </row>
     <row r="107">
@@ -46368,26 +47219,34 @@
           <t>Midi-Pyrénées</t>
         </is>
       </c>
-      <c r="C107">
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Mainly rural</t>
+        </is>
+      </c>
+      <c r="D107">
         <v>0.2299036474273301</v>
       </c>
-      <c r="D107">
+      <c r="E107">
         <v>0.2281580168968031</v>
       </c>
-      <c r="E107">
+      <c r="F107">
         <v>0.3116945620120728</v>
       </c>
-      <c r="F107">
+      <c r="G107">
         <v>0.3440015373078819</v>
       </c>
-      <c r="G107">
+      <c r="H107">
         <v>0.3173481037273032</v>
       </c>
-      <c r="H107">
+      <c r="I107">
         <v>11.58435204110788</v>
       </c>
-      <c r="I107">
+      <c r="J107">
         <v>-2.665343358057876</v>
+      </c>
+      <c r="K107">
+        <v>8.919008683050009</v>
       </c>
     </row>
     <row r="108">
@@ -46401,26 +47260,34 @@
           <t>Auvergne</t>
         </is>
       </c>
-      <c r="C108">
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Mainly rural</t>
+        </is>
+      </c>
+      <c r="D108">
         <v>0.20666515096115</v>
       </c>
-      <c r="D108">
+      <c r="E108">
         <v>0.2050697822032262</v>
       </c>
-      <c r="E108">
+      <c r="F108">
         <v>0.26881189401155</v>
       </c>
-      <c r="F108">
+      <c r="G108">
         <v>0.2709148197197054</v>
       </c>
-      <c r="G108">
+      <c r="H108">
         <v>0.3096081949185249</v>
       </c>
-      <c r="H108">
+      <c r="I108">
         <v>6.584503751647924</v>
       </c>
-      <c r="I108">
+      <c r="J108">
         <v>3.869337519881949</v>
+      </c>
+      <c r="K108">
+        <v>10.45384127152987</v>
       </c>
     </row>
     <row r="109">
@@ -46434,26 +47301,34 @@
           <t>Rhône-Alpes</t>
         </is>
       </c>
-      <c r="C109">
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Intermediate</t>
+        </is>
+      </c>
+      <c r="D109">
         <v>0.2157875222532703</v>
       </c>
-      <c r="D109">
+      <c r="E109">
         <v>0.2340474163255578</v>
       </c>
-      <c r="E109">
+      <c r="F109">
         <v>0.3101783576365637</v>
       </c>
-      <c r="F109">
+      <c r="G109">
         <v>0.3449990585788481</v>
       </c>
-      <c r="G109">
+      <c r="H109">
         <v>0.3451795537231341</v>
       </c>
-      <c r="H109">
+      <c r="I109">
         <v>11.09516422532902</v>
       </c>
-      <c r="I109">
+      <c r="J109">
         <v>0.01804951442860303</v>
+      </c>
+      <c r="K109">
+        <v>11.11321373975762</v>
       </c>
     </row>
     <row r="110">
@@ -46467,26 +47342,34 @@
           <t>Provence-Alpes-Côte d’Azur</t>
         </is>
       </c>
-      <c r="C110">
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Mainly urban</t>
+        </is>
+      </c>
+      <c r="D110">
         <v>0.2331474636888354</v>
       </c>
-      <c r="D110">
+      <c r="E110">
         <v>0.2306987315218433</v>
       </c>
-      <c r="E110">
+      <c r="F110">
         <v>0.2818481289883483</v>
       </c>
-      <c r="F110">
+      <c r="G110">
         <v>0.3315741040640147</v>
       </c>
-      <c r="G110">
+      <c r="H110">
         <v>0.3308939927431972</v>
       </c>
-      <c r="H110">
+      <c r="I110">
         <v>10.08753725421713</v>
       </c>
-      <c r="I110">
+      <c r="J110">
         <v>-0.06801113208174669</v>
+      </c>
+      <c r="K110">
+        <v>10.01952612213539</v>
       </c>
     </row>
     <row r="111">
@@ -46500,26 +47383,34 @@
           <t>Corse</t>
         </is>
       </c>
-      <c r="C111">
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Mainly rural</t>
+        </is>
+      </c>
+      <c r="D111">
         <v>0.09861268680389201</v>
       </c>
-      <c r="D111">
+      <c r="E111">
         <v>0.2031224877069421</v>
       </c>
-      <c r="E111">
+      <c r="F111">
         <v>0.281701444101516</v>
       </c>
-      <c r="F111">
+      <c r="G111">
         <v>0.2015654013546522</v>
       </c>
-      <c r="G111">
+      <c r="H111">
         <v>0.275916461086694</v>
       </c>
-      <c r="H111">
+      <c r="I111">
         <v>-0.1557086352289877</v>
       </c>
-      <c r="I111">
+      <c r="J111">
         <v>7.435105973204181</v>
+      </c>
+      <c r="K111">
+        <v>7.279397337975194</v>
       </c>
     </row>
     <row r="112">
@@ -46533,26 +47424,34 @@
           <t>Guadeloupe</t>
         </is>
       </c>
-      <c r="C112">
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Intermediate</t>
+        </is>
+      </c>
+      <c r="D112">
         <v>0.149081357230094</v>
       </c>
-      <c r="D112">
+      <c r="E112">
         <v>0.1614743909818159</v>
       </c>
-      <c r="E112">
+      <c r="F112">
         <v>0.2258680815840126</v>
       </c>
-      <c r="F112">
+      <c r="G112">
         <v>0.2357002899995561</v>
       </c>
-      <c r="G112">
+      <c r="H112">
         <v>0.2601846598978962</v>
       </c>
-      <c r="H112">
+      <c r="I112">
         <v>7.422589901774024</v>
       </c>
-      <c r="I112">
+      <c r="J112">
         <v>2.448436989834005</v>
+      </c>
+      <c r="K112">
+        <v>9.871026891608029</v>
       </c>
     </row>
     <row r="113">
@@ -46566,26 +47465,34 @@
           <t>Martinique</t>
         </is>
       </c>
-      <c r="C113">
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Intermediate</t>
+        </is>
+      </c>
+      <c r="D113">
         <v>0.1697285908894492</v>
       </c>
-      <c r="D113">
+      <c r="E113">
         <v>0.14732479571067</v>
       </c>
-      <c r="E113">
+      <c r="F113">
         <v>0.2429026421417735</v>
       </c>
-      <c r="F113">
+      <c r="G113">
         <v>0.2399083583068476</v>
       </c>
-      <c r="G113">
+      <c r="H113">
         <v>0.2331399601949357</v>
       </c>
-      <c r="H113">
+      <c r="I113">
         <v>9.258356259617766</v>
       </c>
-      <c r="I113">
+      <c r="J113">
         <v>-0.6768398111911961</v>
+      </c>
+      <c r="K113">
+        <v>8.581516448426571</v>
       </c>
     </row>
     <row r="114">
@@ -46599,26 +47506,34 @@
           <t>Guyane</t>
         </is>
       </c>
-      <c r="C114">
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Intermediate</t>
+        </is>
+      </c>
+      <c r="D114">
         <v>0.2118766371210369</v>
       </c>
-      <c r="D114">
+      <c r="E114">
         <v>0.1585452273684143</v>
       </c>
-      <c r="E114">
+      <c r="F114">
         <v>0.275839654714655</v>
       </c>
-      <c r="F114">
+      <c r="G114">
         <v>0.1931605465527023</v>
       </c>
-      <c r="G114">
+      <c r="H114">
         <v>0.2243098383068778</v>
       </c>
-      <c r="H114">
+      <c r="I114">
         <v>3.461531918428798</v>
       </c>
-      <c r="I114">
+      <c r="J114">
         <v>3.114929175417558</v>
+      </c>
+      <c r="K114">
+        <v>6.576461093846356</v>
       </c>
     </row>
     <row r="115">
@@ -46632,26 +47547,34 @@
           <t>La Réunion</t>
         </is>
       </c>
-      <c r="C115">
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Mainly urban</t>
+        </is>
+      </c>
+      <c r="D115">
         <v>0.2046566641840884</v>
       </c>
-      <c r="D115">
+      <c r="E115">
         <v>0.1951067428617228</v>
       </c>
-      <c r="E115">
+      <c r="F115">
         <v>0.2160132806490925</v>
       </c>
-      <c r="F115">
+      <c r="G115">
         <v>0.2392292793003536</v>
       </c>
-      <c r="G115">
+      <c r="H115">
         <v>0.2258557825180448</v>
       </c>
-      <c r="H115">
+      <c r="I115">
         <v>4.412253643863082</v>
       </c>
-      <c r="I115">
+      <c r="J115">
         <v>-1.337349678230881</v>
+      </c>
+      <c r="K115">
+        <v>3.0749039656322</v>
       </c>
     </row>
     <row r="116">
@@ -46665,26 +47588,34 @@
           <t>Panonska Hrvatska</t>
         </is>
       </c>
-      <c r="C116">
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Mainly rural</t>
+        </is>
+      </c>
+      <c r="D116">
         <v>0.02419265097317507</v>
       </c>
-      <c r="D116">
+      <c r="E116">
         <v>0.03095409447496424</v>
       </c>
-      <c r="E116">
+      <c r="F116">
         <v>0.05839740430217089</v>
       </c>
-      <c r="F116">
+      <c r="G116">
         <v>0.07860786698015794</v>
       </c>
-      <c r="G116">
+      <c r="H116">
         <v>0.06722319309868975</v>
       </c>
-      <c r="H116">
+      <c r="I116">
         <v>4.765377250519371</v>
       </c>
-      <c r="I116">
+      <c r="J116">
         <v>-1.138467388146819</v>
+      </c>
+      <c r="K116">
+        <v>3.626909862372552</v>
       </c>
     </row>
     <row r="117">
@@ -46698,26 +47629,34 @@
           <t>Jadranska Hrvatska</t>
         </is>
       </c>
-      <c r="C117">
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Intermediate</t>
+        </is>
+      </c>
+      <c r="D117">
         <v>0.06696435316795271</v>
       </c>
-      <c r="D117">
+      <c r="E117">
         <v>0.06766486499414802</v>
       </c>
-      <c r="E117">
+      <c r="F117">
         <v>0.09929753999567555</v>
       </c>
-      <c r="F117">
+      <c r="G117">
         <v>0.1069577074768321</v>
       </c>
-      <c r="G117">
+      <c r="H117">
         <v>0.09587414326404552</v>
       </c>
-      <c r="H117">
+      <c r="I117">
         <v>3.929284248268408</v>
       </c>
-      <c r="I117">
+      <c r="J117">
         <v>-1.108356421278658</v>
+      </c>
+      <c r="K117">
+        <v>2.82092782698975</v>
       </c>
     </row>
     <row r="118">
@@ -46731,26 +47670,34 @@
           <t>Grad Zagreb</t>
         </is>
       </c>
-      <c r="C118">
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Capital region</t>
+        </is>
+      </c>
+      <c r="D118">
         <v>0.1484373507099268</v>
       </c>
-      <c r="D118">
+      <c r="E118">
         <v>0.1567914080309194</v>
       </c>
-      <c r="E118">
+      <c r="F118">
         <v>0.251894815141988</v>
       </c>
-      <c r="F118">
+      <c r="G118">
         <v>0.305641624869091</v>
       </c>
-      <c r="G118">
+      <c r="H118">
         <v>0.2870622792256151</v>
       </c>
-      <c r="H118">
+      <c r="I118">
         <v>14.88502168381715</v>
       </c>
-      <c r="I118">
+      <c r="J118">
         <v>-1.857934564347585</v>
+      </c>
+      <c r="K118">
+        <v>13.02708711946957</v>
       </c>
     </row>
     <row r="119">
@@ -46764,26 +47711,34 @@
           <t>Sjeverna Hrvatska</t>
         </is>
       </c>
-      <c r="C119">
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Mainly rural</t>
+        </is>
+      </c>
+      <c r="D119">
         <v>0.03915231660108025</v>
       </c>
-      <c r="D119">
+      <c r="E119">
         <v>0.03509001138923874</v>
       </c>
-      <c r="E119">
+      <c r="F119">
         <v>0.04767198661894615</v>
       </c>
-      <c r="F119">
+      <c r="G119">
         <v>0.07305014280587208</v>
       </c>
-      <c r="G119">
+      <c r="H119">
         <v>0.0704197011517059</v>
       </c>
-      <c r="H119">
+      <c r="I119">
         <v>3.796013141663334</v>
       </c>
-      <c r="I119">
+      <c r="J119">
         <v>-0.2630441654166177</v>
+      </c>
+      <c r="K119">
+        <v>3.532968976246716</v>
       </c>
     </row>
     <row r="120">
@@ -46797,26 +47752,34 @@
           <t>Budapest</t>
         </is>
       </c>
-      <c r="C120">
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Capital region</t>
+        </is>
+      </c>
+      <c r="D120">
         <v>0.1416338187134274</v>
       </c>
-      <c r="D120">
+      <c r="E120">
         <v>0.1094729940001594</v>
       </c>
-      <c r="E120">
+      <c r="F120">
         <v>0.2744868712299408</v>
       </c>
-      <c r="F120">
+      <c r="G120">
         <v>0.3506635799969905</v>
       </c>
-      <c r="G120">
+      <c r="H120">
         <v>0.2817694822537014</v>
       </c>
-      <c r="H120">
+      <c r="I120">
         <v>24.11905859968311</v>
       </c>
-      <c r="I120">
+      <c r="J120">
         <v>-6.88940977432892</v>
+      </c>
+      <c r="K120">
+        <v>17.22964882535419</v>
       </c>
     </row>
     <row r="121">
@@ -46830,26 +47793,34 @@
           <t>Pest</t>
         </is>
       </c>
-      <c r="C121">
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Intermediate</t>
+        </is>
+      </c>
+      <c r="D121">
         <v>0.06011942855920902</v>
       </c>
-      <c r="D121">
+      <c r="E121">
         <v>0.04604689623363897</v>
       </c>
-      <c r="E121">
+      <c r="F121">
         <v>0.1264523868097724</v>
       </c>
-      <c r="F121">
+      <c r="G121">
         <v>0.1170609807820008</v>
       </c>
-      <c r="G121">
+      <c r="H121">
         <v>0.08475641433640332</v>
       </c>
-      <c r="H121">
+      <c r="I121">
         <v>7.101408454836186</v>
       </c>
-      <c r="I121">
+      <c r="J121">
         <v>-3.230456644559751</v>
+      </c>
+      <c r="K121">
+        <v>3.870951810276436</v>
       </c>
     </row>
     <row r="122">
@@ -46863,26 +47834,34 @@
           <t>Közép-Dunántúl</t>
         </is>
       </c>
-      <c r="C122">
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Intermediate</t>
+        </is>
+      </c>
+      <c r="D122">
         <v>0.03124148621413817</v>
       </c>
-      <c r="D122">
+      <c r="E122">
         <v>0.01957837122172732</v>
       </c>
-      <c r="E122">
+      <c r="F122">
         <v>0.06137948237670769</v>
       </c>
-      <c r="F122">
+      <c r="G122">
         <v>0.08677881419033238</v>
       </c>
-      <c r="G122">
+      <c r="H122">
         <v>0.05557757092902346</v>
       </c>
-      <c r="H122">
+      <c r="I122">
         <v>6.720044296860506</v>
       </c>
-      <c r="I122">
+      <c r="J122">
         <v>-3.120124326130892</v>
+      </c>
+      <c r="K122">
+        <v>3.599919970729613</v>
       </c>
     </row>
     <row r="123">
@@ -46896,26 +47875,34 @@
           <t>Nyugat-Dunántúl</t>
         </is>
       </c>
-      <c r="C123">
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Intermediate</t>
+        </is>
+      </c>
+      <c r="D123">
         <v>0.04513214932715322</v>
       </c>
-      <c r="D123">
+      <c r="E123">
         <v>0.04429302868537222</v>
       </c>
-      <c r="E123">
+      <c r="F123">
         <v>0.06609688305024944</v>
       </c>
-      <c r="F123">
+      <c r="G123">
         <v>0.08910710664728888</v>
       </c>
-      <c r="G123">
+      <c r="H123">
         <v>0.06734651598423981</v>
       </c>
-      <c r="H123">
+      <c r="I123">
         <v>4.481407796191666</v>
       </c>
-      <c r="I123">
+      <c r="J123">
         <v>-2.176059066304907</v>
+      </c>
+      <c r="K123">
+        <v>2.305348729886759</v>
       </c>
     </row>
     <row r="124">
@@ -46929,26 +47916,34 @@
           <t>Dél-Dunántúl</t>
         </is>
       </c>
-      <c r="C124">
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Mainly rural</t>
+        </is>
+      </c>
+      <c r="D124">
         <v>0.06363416544611525</v>
       </c>
-      <c r="D124">
+      <c r="E124">
         <v>0.02645669382194807</v>
       </c>
-      <c r="E124">
+      <c r="F124">
         <v>0.06598751367788155</v>
       </c>
-      <c r="F124">
+      <c r="G124">
         <v>0.076766990139783</v>
       </c>
-      <c r="G124">
+      <c r="H124">
         <v>0.06879984675001005</v>
       </c>
-      <c r="H124">
+      <c r="I124">
         <v>5.031029631783493</v>
       </c>
-      <c r="I124">
+      <c r="J124">
         <v>-0.7967143389772946</v>
+      </c>
+      <c r="K124">
+        <v>4.234315292806198</v>
       </c>
     </row>
     <row r="125">
@@ -46962,26 +47957,34 @@
           <t>Észak-Magyarország</t>
         </is>
       </c>
-      <c r="C125">
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Intermediate</t>
+        </is>
+      </c>
+      <c r="D125">
         <v>0.03589305447797223</v>
       </c>
-      <c r="D125">
+      <c r="E125">
         <v>0.03016298958185283</v>
       </c>
-      <c r="E125">
+      <c r="F125">
         <v>0.06138109893207765</v>
       </c>
-      <c r="F125">
+      <c r="G125">
         <v>0.09918316773775676</v>
       </c>
-      <c r="G125">
+      <c r="H125">
         <v>0.08910535454339798</v>
       </c>
-      <c r="H125">
+      <c r="I125">
         <v>6.902017815590393</v>
       </c>
-      <c r="I125">
+      <c r="J125">
         <v>-1.007781319435878</v>
+      </c>
+      <c r="K125">
+        <v>5.894236496154514</v>
       </c>
     </row>
     <row r="126">
@@ -46995,26 +47998,34 @@
           <t>Észak-Alföld</t>
         </is>
       </c>
-      <c r="C126">
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Intermediate</t>
+        </is>
+      </c>
+      <c r="D126">
         <v>0.03270441871746263</v>
       </c>
-      <c r="D126">
+      <c r="E126">
         <v>0.02561598608334359</v>
       </c>
-      <c r="E126">
+      <c r="F126">
         <v>0.06016271683601004</v>
       </c>
-      <c r="F126">
+      <c r="G126">
         <v>0.05793581195345154</v>
       </c>
-      <c r="G126">
+      <c r="H126">
         <v>0.04688044848418496</v>
       </c>
-      <c r="H126">
+      <c r="I126">
         <v>3.231982587010795</v>
       </c>
-      <c r="I126">
+      <c r="J126">
         <v>-1.105536346926657</v>
+      </c>
+      <c r="K126">
+        <v>2.126446240084137</v>
       </c>
     </row>
     <row r="127">
@@ -47028,26 +48039,34 @@
           <t>Dél-Alföld</t>
         </is>
       </c>
-      <c r="C127">
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Intermediate</t>
+        </is>
+      </c>
+      <c r="D127">
         <v>0.03940532817422406</v>
       </c>
-      <c r="D127">
+      <c r="E127">
         <v>0.03236320478639439</v>
       </c>
-      <c r="E127">
+      <c r="F127">
         <v>0.05695810986938184</v>
       </c>
-      <c r="F127">
+      <c r="G127">
         <v>0.0687245650569675</v>
       </c>
-      <c r="G127">
+      <c r="H127">
         <v>0.06135402637510977</v>
       </c>
-      <c r="H127">
+      <c r="I127">
         <v>3.636136027057311</v>
       </c>
-      <c r="I127">
+      <c r="J127">
         <v>-0.7370538681857732</v>
+      </c>
+      <c r="K127">
+        <v>2.899082158871538</v>
       </c>
     </row>
     <row r="128">
@@ -47061,26 +48080,34 @@
           <t>Northern and Western</t>
         </is>
       </c>
-      <c r="C128">
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Mainly rural</t>
+        </is>
+      </c>
+      <c r="D128">
         <v>0.1780886315657809</v>
       </c>
-      <c r="D128">
+      <c r="E128">
         <v>0.1862036913395874</v>
       </c>
-      <c r="E128">
+      <c r="F128">
         <v>0.2661135050513692</v>
       </c>
-      <c r="F128">
+      <c r="G128">
         <v>0.3139999003755496</v>
       </c>
-      <c r="G128">
+      <c r="H128">
         <v>0.2711698444187938</v>
       </c>
-      <c r="H128">
+      <c r="I128">
         <v>12.77962090359621</v>
       </c>
-      <c r="I128">
+      <c r="J128">
         <v>-4.283005595675582</v>
+      </c>
+      <c r="K128">
+        <v>8.496615307920633</v>
       </c>
     </row>
     <row r="129">
@@ -47094,26 +48121,34 @@
           <t>Southern</t>
         </is>
       </c>
-      <c r="C129">
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Mainly rural</t>
+        </is>
+      </c>
+      <c r="D129">
         <v>0.1931077204770776</v>
       </c>
-      <c r="D129">
+      <c r="E129">
         <v>0.1894527113605526</v>
       </c>
-      <c r="E129">
+      <c r="F129">
         <v>0.2863197390643544</v>
       </c>
-      <c r="F129">
+      <c r="G129">
         <v>0.3335186963235288</v>
       </c>
-      <c r="G129">
+      <c r="H129">
         <v>0.3353120864332328</v>
       </c>
-      <c r="H129">
+      <c r="I129">
         <v>14.40659849629762</v>
       </c>
-      <c r="I129">
+      <c r="J129">
         <v>0.1793390109704029</v>
+      </c>
+      <c r="K129">
+        <v>14.58593750726802</v>
       </c>
     </row>
     <row r="130">
@@ -47127,26 +48162,34 @@
           <t>Eastern and Midland</t>
         </is>
       </c>
-      <c r="C130">
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Capital region</t>
+        </is>
+      </c>
+      <c r="D130">
         <v>0.2076061312677297</v>
       </c>
-      <c r="D130">
+      <c r="E130">
         <v>0.215613364308745</v>
       </c>
-      <c r="E130">
+      <c r="F130">
         <v>0.3620232794540749</v>
       </c>
-      <c r="F130">
+      <c r="G130">
         <v>0.4608625703810508</v>
       </c>
-      <c r="G130">
+      <c r="H130">
         <v>0.4129697147523931</v>
       </c>
-      <c r="H130">
+      <c r="I130">
         <v>24.52492060723058</v>
       </c>
-      <c r="I130">
+      <c r="J130">
         <v>-4.78928556286577</v>
+      </c>
+      <c r="K130">
+        <v>19.73563504436481</v>
       </c>
     </row>
     <row r="131">
@@ -47160,26 +48203,34 @@
           <t>Piemonte</t>
         </is>
       </c>
-      <c r="C131">
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Mainly urban</t>
+        </is>
+      </c>
+      <c r="D131">
         <v>0.05245305273540036</v>
       </c>
-      <c r="D131">
+      <c r="E131">
         <v>0.05379167297175132</v>
       </c>
-      <c r="E131">
+      <c r="F131">
         <v>0.144224957429944</v>
       </c>
-      <c r="F131">
+      <c r="G131">
         <v>0.1510378329170062</v>
       </c>
-      <c r="G131">
+      <c r="H131">
         <v>0.1317662357734103</v>
       </c>
-      <c r="H131">
+      <c r="I131">
         <v>9.72461599452549</v>
       </c>
-      <c r="I131">
+      <c r="J131">
         <v>-1.927159714359586</v>
+      </c>
+      <c r="K131">
+        <v>7.797456280165902</v>
       </c>
     </row>
     <row r="132">
@@ -47193,26 +48244,34 @@
           <t>Valle d’Aosta/Vallée d’Aoste</t>
         </is>
       </c>
-      <c r="C132">
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Intermediate</t>
+        </is>
+      </c>
+      <c r="D132">
         <v>0.03905781350924329</v>
       </c>
-      <c r="D132">
+      <c r="E132">
         <v>0.04369765237927641</v>
       </c>
-      <c r="E132">
+      <c r="F132">
         <v>0.1188967218481293</v>
       </c>
-      <c r="F132">
+      <c r="G132">
         <v>0.1082439789084368</v>
       </c>
-      <c r="G132">
+      <c r="H132">
         <v>0.06736233781068288</v>
       </c>
-      <c r="H132">
+      <c r="I132">
         <v>6.454632652916042</v>
       </c>
-      <c r="I132">
+      <c r="J132">
         <v>-4.088164109775396</v>
+      </c>
+      <c r="K132">
+        <v>2.366468543140647</v>
       </c>
     </row>
     <row r="133">
@@ -47226,26 +48285,34 @@
           <t>Liguria</t>
         </is>
       </c>
-      <c r="C133">
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Mainly urban</t>
+        </is>
+      </c>
+      <c r="D133">
         <v>0.05481587717437417</v>
       </c>
-      <c r="D133">
+      <c r="E133">
         <v>0.06383064265631327</v>
       </c>
-      <c r="E133">
+      <c r="F133">
         <v>0.1676386797987164</v>
       </c>
-      <c r="F133">
+      <c r="G133">
         <v>0.1594330210662927</v>
       </c>
-      <c r="G133">
+      <c r="H133">
         <v>0.1375189348050339</v>
       </c>
-      <c r="H133">
+      <c r="I133">
         <v>9.560237840997946</v>
       </c>
-      <c r="I133">
+      <c r="J133">
         <v>-2.191408626125882</v>
+      </c>
+      <c r="K133">
+        <v>7.368829214872063</v>
       </c>
     </row>
     <row r="134">
@@ -47259,26 +48326,34 @@
           <t>Lombardia</t>
         </is>
       </c>
-      <c r="C134">
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Mainly urban</t>
+        </is>
+      </c>
+      <c r="D134">
         <v>0.05285419498466616</v>
       </c>
-      <c r="D134">
+      <c r="E134">
         <v>0.04997150383368089</v>
       </c>
-      <c r="E134">
+      <c r="F134">
         <v>0.1654042303630304</v>
       </c>
-      <c r="F134">
+      <c r="G134">
         <v>0.1851197757552059</v>
       </c>
-      <c r="G134">
+      <c r="H134">
         <v>0.1526479679896324</v>
       </c>
-      <c r="H134">
+      <c r="I134">
         <v>13.51482719215251</v>
       </c>
-      <c r="I134">
+      <c r="J134">
         <v>-3.247180776557354</v>
+      </c>
+      <c r="K134">
+        <v>10.26764641559515</v>
       </c>
     </row>
     <row r="135">
@@ -47292,26 +48367,34 @@
           <t>Abruzzo</t>
         </is>
       </c>
-      <c r="C135">
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Intermediate</t>
+        </is>
+      </c>
+      <c r="D135">
         <v>0.04649344472542675</v>
       </c>
-      <c r="D135">
+      <c r="E135">
         <v>0.04830382488429442</v>
       </c>
-      <c r="E135">
+      <c r="F135">
         <v>0.1089334935116231</v>
       </c>
-      <c r="F135">
+      <c r="G135">
         <v>0.09818611774464603</v>
       </c>
-      <c r="G135">
+      <c r="H135">
         <v>0.07396191624342116</v>
       </c>
-      <c r="H135">
+      <c r="I135">
         <v>4.988229286035161</v>
       </c>
-      <c r="I135">
+      <c r="J135">
         <v>-2.422420150122487</v>
+      </c>
+      <c r="K135">
+        <v>2.565809135912674</v>
       </c>
     </row>
     <row r="136">
@@ -47325,26 +48408,34 @@
           <t>Molise</t>
         </is>
       </c>
-      <c r="C136">
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Mainly rural</t>
+        </is>
+      </c>
+      <c r="D136">
         <v>0.03548017706855168</v>
       </c>
-      <c r="D136">
+      <c r="E136">
         <v>0.03188639902751622</v>
       </c>
-      <c r="E136">
+      <c r="F136">
         <v>0.09183189687464742</v>
       </c>
-      <c r="F136">
+      <c r="G136">
         <v>0.09365387664525787</v>
       </c>
-      <c r="G136">
+      <c r="H136">
         <v>0.07532679220136705</v>
       </c>
-      <c r="H136">
+      <c r="I136">
         <v>6.176747761774165</v>
       </c>
-      <c r="I136">
+      <c r="J136">
         <v>-1.832708444389082</v>
+      </c>
+      <c r="K136">
+        <v>4.344039317385083</v>
       </c>
     </row>
     <row r="137">
@@ -47358,26 +48449,34 @@
           <t>Campania</t>
         </is>
       </c>
-      <c r="C137">
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Mainly urban</t>
+        </is>
+      </c>
+      <c r="D137">
         <v>0.03605455139316079</v>
       </c>
-      <c r="D137">
+      <c r="E137">
         <v>0.0349649281371842</v>
       </c>
-      <c r="E137">
+      <c r="F137">
         <v>0.1140938437671645</v>
       </c>
-      <c r="F137">
+      <c r="G137">
         <v>0.1190298836817128</v>
       </c>
-      <c r="G137">
+      <c r="H137">
         <v>0.08673214645940013</v>
       </c>
-      <c r="H137">
+      <c r="I137">
         <v>8.406495554452862</v>
       </c>
-      <c r="I137">
+      <c r="J137">
         <v>-3.22977372223127</v>
+      </c>
+      <c r="K137">
+        <v>5.176721832221593</v>
       </c>
     </row>
     <row r="138">
@@ -47391,26 +48490,34 @@
           <t>Puglia</t>
         </is>
       </c>
-      <c r="C138">
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Mainly urban</t>
+        </is>
+      </c>
+      <c r="D138">
         <v>0.03025253844845998</v>
       </c>
-      <c r="D138">
+      <c r="E138">
         <v>0.02846171081549394</v>
       </c>
-      <c r="E138">
+      <c r="F138">
         <v>0.08729526781526829</v>
       </c>
-      <c r="F138">
+      <c r="G138">
         <v>0.09722842195428462</v>
       </c>
-      <c r="G138">
+      <c r="H138">
         <v>0.06597220568457626</v>
       </c>
-      <c r="H138">
+      <c r="I138">
         <v>6.876671113879068</v>
       </c>
-      <c r="I138">
+      <c r="J138">
         <v>-3.125621626970835</v>
+      </c>
+      <c r="K138">
+        <v>3.751049486908232</v>
       </c>
     </row>
     <row r="139">
@@ -47424,26 +48531,34 @@
           <t>Basilicata</t>
         </is>
       </c>
-      <c r="C139">
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Mainly rural</t>
+        </is>
+      </c>
+      <c r="D139">
         <v>0.04096699966913901</v>
       </c>
-      <c r="D139">
+      <c r="E139">
         <v>0.0300096007525033</v>
       </c>
-      <c r="E139">
+      <c r="F139">
         <v>0.1096008654563533</v>
       </c>
-      <c r="F139">
+      <c r="G139">
         <v>0.1008265388445252</v>
       </c>
-      <c r="G139">
+      <c r="H139">
         <v>0.08096083289154216</v>
       </c>
-      <c r="H139">
+      <c r="I139">
         <v>7.08169380920219</v>
       </c>
-      <c r="I139">
+      <c r="J139">
         <v>-1.986570595298305</v>
+      </c>
+      <c r="K139">
+        <v>5.095123213903885</v>
       </c>
     </row>
     <row r="140">
@@ -47457,26 +48572,34 @@
           <t>Calabria</t>
         </is>
       </c>
-      <c r="C140">
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Intermediate</t>
+        </is>
+      </c>
+      <c r="D140">
         <v>0.0328633012480577</v>
       </c>
-      <c r="D140">
+      <c r="E140">
         <v>0.03342625216464561</v>
       </c>
-      <c r="E140">
+      <c r="F140">
         <v>0.09056859389796533</v>
       </c>
-      <c r="F140">
+      <c r="G140">
         <v>0.09328865151353538</v>
       </c>
-      <c r="G140">
+      <c r="H140">
         <v>0.08161418937308944</v>
       </c>
-      <c r="H140">
+      <c r="I140">
         <v>5.986239934888977</v>
       </c>
-      <c r="I140">
+      <c r="J140">
         <v>-1.167446214044594</v>
+      </c>
+      <c r="K140">
+        <v>4.818793720844383</v>
       </c>
     </row>
     <row r="141">
@@ -47490,26 +48613,34 @@
           <t>Sicilia</t>
         </is>
       </c>
-      <c r="C141">
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Mainly urban</t>
+        </is>
+      </c>
+      <c r="D141">
         <v>0.0346407664895264</v>
       </c>
-      <c r="D141">
+      <c r="E141">
         <v>0.02888081537284423</v>
       </c>
-      <c r="E141">
+      <c r="F141">
         <v>0.09570465304346648</v>
       </c>
-      <c r="F141">
+      <c r="G141">
         <v>0.0988742361881166</v>
       </c>
-      <c r="G141">
+      <c r="H141">
         <v>0.07383780146600499</v>
       </c>
-      <c r="H141">
+      <c r="I141">
         <v>6.999342081527236</v>
       </c>
-      <c r="I141">
+      <c r="J141">
         <v>-2.50364347221116</v>
+      </c>
+      <c r="K141">
+        <v>4.495698609316076</v>
       </c>
     </row>
     <row r="142">
@@ -47523,26 +48654,34 @@
           <t>Sardegna</t>
         </is>
       </c>
-      <c r="C142">
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Intermediate</t>
+        </is>
+      </c>
+      <c r="D142">
         <v>0.03717792172701621</v>
       </c>
-      <c r="D142">
+      <c r="E142">
         <v>0.03965643134902484</v>
       </c>
-      <c r="E142">
+      <c r="F142">
         <v>0.1202410106054182</v>
       </c>
-      <c r="F142">
+      <c r="G142">
         <v>0.1266165236750665</v>
       </c>
-      <c r="G142">
+      <c r="H142">
         <v>0.0991559584655404</v>
       </c>
-      <c r="H142">
+      <c r="I142">
         <v>8.696009232604162</v>
       </c>
-      <c r="I142">
+      <c r="J142">
         <v>-2.746056520952606</v>
+      </c>
+      <c r="K142">
+        <v>5.949952711651556</v>
       </c>
     </row>
     <row r="143">
@@ -47556,26 +48695,34 @@
           <t>Provincia Autonoma di Bolzano/Bozen</t>
         </is>
       </c>
-      <c r="C143">
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Mainly rural</t>
+        </is>
+      </c>
+      <c r="D143">
         <v>0.06185202020441206</v>
       </c>
-      <c r="D143">
+      <c r="E143">
         <v>0.06718384325164226</v>
       </c>
-      <c r="E143">
+      <c r="F143">
         <v>0.1348077279111496</v>
       </c>
-      <c r="F143">
+      <c r="G143">
         <v>0.1350032182858561</v>
       </c>
-      <c r="G143">
+      <c r="H143">
         <v>0.123726363968477</v>
       </c>
-      <c r="H143">
+      <c r="I143">
         <v>6.781937503421387</v>
       </c>
-      <c r="I143">
+      <c r="J143">
         <v>-1.12768543173791</v>
+      </c>
+      <c r="K143">
+        <v>5.654252071683477</v>
       </c>
     </row>
     <row r="144">
@@ -47589,26 +48736,34 @@
           <t>Provincia Autonoma di Trento</t>
         </is>
       </c>
-      <c r="C144">
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Intermediate</t>
+        </is>
+      </c>
+      <c r="D144">
         <v>0.05385296168379399</v>
       </c>
-      <c r="D144">
+      <c r="E144">
         <v>0.05052482510457729</v>
       </c>
-      <c r="E144">
+      <c r="F144">
         <v>0.1496551480694785</v>
       </c>
-      <c r="F144">
+      <c r="G144">
         <v>0.1389895343927805</v>
       </c>
-      <c r="G144">
+      <c r="H144">
         <v>0.123429429791198</v>
       </c>
-      <c r="H144">
+      <c r="I144">
         <v>8.846470928820322</v>
       </c>
-      <c r="I144">
+      <c r="J144">
         <v>-1.556010460158248</v>
+      </c>
+      <c r="K144">
+        <v>7.290460468662071</v>
       </c>
     </row>
     <row r="145">
@@ -47622,26 +48777,34 @@
           <t>Veneto</t>
         </is>
       </c>
-      <c r="C145">
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Intermediate</t>
+        </is>
+      </c>
+      <c r="D145">
         <v>0.05250102874213951</v>
       </c>
-      <c r="D145">
+      <c r="E145">
         <v>0.05136145197957002</v>
       </c>
-      <c r="E145">
+      <c r="F145">
         <v>0.1138293379671004</v>
       </c>
-      <c r="F145">
+      <c r="G145">
         <v>0.1262963488918687</v>
       </c>
-      <c r="G145">
+      <c r="H145">
         <v>0.1081454844691922</v>
       </c>
-      <c r="H145">
+      <c r="I145">
         <v>7.493489691229864</v>
       </c>
-      <c r="I145">
+      <c r="J145">
         <v>-1.815086442267648</v>
+      </c>
+      <c r="K145">
+        <v>5.678403248962216</v>
       </c>
     </row>
     <row r="146">
@@ -47655,26 +48818,34 @@
           <t>Friuli-Venezia Giulia</t>
         </is>
       </c>
-      <c r="C146">
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Intermediate</t>
+        </is>
+      </c>
+      <c r="D146">
         <v>0.0692295275689294</v>
       </c>
-      <c r="D146">
+      <c r="E146">
         <v>0.06462267799496078</v>
       </c>
-      <c r="E146">
+      <c r="F146">
         <v>0.1373558115066653</v>
       </c>
-      <c r="F146">
+      <c r="G146">
         <v>0.1349069621033409</v>
       </c>
-      <c r="G146">
+      <c r="H146">
         <v>0.1062492144315306</v>
       </c>
-      <c r="H146">
+      <c r="I146">
         <v>7.028428410838015</v>
       </c>
-      <c r="I146">
+      <c r="J146">
         <v>-2.865774767181033</v>
+      </c>
+      <c r="K146">
+        <v>4.162653643656983</v>
       </c>
     </row>
     <row r="147">
@@ -47688,26 +48859,34 @@
           <t>Emilia-Romagna</t>
         </is>
       </c>
-      <c r="C147">
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Intermediate</t>
+        </is>
+      </c>
+      <c r="D147">
         <v>0.0542804339950083</v>
       </c>
-      <c r="D147">
+      <c r="E147">
         <v>0.05365840595289744</v>
       </c>
-      <c r="E147">
+      <c r="F147">
         <v>0.1525556790430312</v>
       </c>
-      <c r="F147">
+      <c r="G147">
         <v>0.1579165726122865</v>
       </c>
-      <c r="G147">
+      <c r="H147">
         <v>0.1304894999174007</v>
       </c>
-      <c r="H147">
+      <c r="I147">
         <v>10.4258166659389</v>
       </c>
-      <c r="I147">
+      <c r="J147">
         <v>-2.742707269488578</v>
+      </c>
+      <c r="K147">
+        <v>7.683109396450324</v>
       </c>
     </row>
     <row r="148">
@@ -47721,26 +48900,34 @@
           <t>Toscana</t>
         </is>
       </c>
-      <c r="C148">
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Intermediate</t>
+        </is>
+      </c>
+      <c r="D148">
         <v>0.0535344667036061</v>
       </c>
-      <c r="D148">
+      <c r="E148">
         <v>0.05050563599712087</v>
       </c>
-      <c r="E148">
+      <c r="F148">
         <v>0.1387959416999056</v>
       </c>
-      <c r="F148">
+      <c r="G148">
         <v>0.1386501281299768</v>
       </c>
-      <c r="G148">
+      <c r="H148">
         <v>0.1013913948109228</v>
       </c>
-      <c r="H148">
+      <c r="I148">
         <v>8.81444921328559</v>
       </c>
-      <c r="I148">
+      <c r="J148">
         <v>-3.725873331905401</v>
+      </c>
+      <c r="K148">
+        <v>5.088575881380189</v>
       </c>
     </row>
     <row r="149">
@@ -47754,26 +48941,34 @@
           <t>Umbria</t>
         </is>
       </c>
-      <c r="C149">
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Intermediate</t>
+        </is>
+      </c>
+      <c r="D149">
         <v>0.04686814818995432</v>
       </c>
-      <c r="D149">
+      <c r="E149">
         <v>0.0460273294386187</v>
       </c>
-      <c r="E149">
+      <c r="F149">
         <v>0.1104029570830223</v>
       </c>
-      <c r="F149">
+      <c r="G149">
         <v>0.1154977724659938</v>
       </c>
-      <c r="G149">
+      <c r="H149">
         <v>0.08814012208659823</v>
       </c>
-      <c r="H149">
+      <c r="I149">
         <v>6.947044302737508</v>
       </c>
-      <c r="I149">
+      <c r="J149">
         <v>-2.735765037939555</v>
+      </c>
+      <c r="K149">
+        <v>4.211279264797953</v>
       </c>
     </row>
     <row r="150">
@@ -47787,26 +48982,34 @@
           <t>Marche</t>
         </is>
       </c>
-      <c r="C150">
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Intermediate</t>
+        </is>
+      </c>
+      <c r="D150">
         <v>0.03728489716476825</v>
       </c>
-      <c r="D150">
+      <c r="E150">
         <v>0.04298844486347535</v>
       </c>
-      <c r="E150">
+      <c r="F150">
         <v>0.1024385533764499</v>
       </c>
-      <c r="F150">
+      <c r="G150">
         <v>0.1175637664445271</v>
       </c>
-      <c r="G150">
+      <c r="H150">
         <v>0.07710032201015553</v>
       </c>
-      <c r="H150">
+      <c r="I150">
         <v>7.45753215810517</v>
       </c>
-      <c r="I150">
+      <c r="J150">
         <v>-4.046344443437152</v>
+      </c>
+      <c r="K150">
+        <v>3.411187714668017</v>
       </c>
     </row>
     <row r="151">
@@ -47820,26 +49023,34 @@
           <t>Lazio</t>
         </is>
       </c>
-      <c r="C151">
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Capital region</t>
+        </is>
+      </c>
+      <c r="D151">
         <v>0.0589204602735368</v>
       </c>
-      <c r="D151">
+      <c r="E151">
         <v>0.05551792064368335</v>
       </c>
-      <c r="E151">
+      <c r="F151">
         <v>0.1859169483055672</v>
       </c>
-      <c r="F151">
+      <c r="G151">
         <v>0.2309919843636762</v>
       </c>
-      <c r="G151">
+      <c r="H151">
         <v>0.2121984756062272</v>
       </c>
-      <c r="H151">
+      <c r="I151">
         <v>17.54740637199928</v>
       </c>
-      <c r="I151">
+      <c r="J151">
         <v>-1.879350875744895</v>
+      </c>
+      <c r="K151">
+        <v>15.66805549625439</v>
       </c>
     </row>
     <row r="152">
@@ -47853,26 +49064,34 @@
           <t>Sostinės regionas</t>
         </is>
       </c>
-      <c r="C152">
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Capital region</t>
+        </is>
+      </c>
+      <c r="D152">
         <v>0.06030932156602915</v>
       </c>
-      <c r="D152">
+      <c r="E152">
         <v>0.05712436292444404</v>
       </c>
-      <c r="E152">
+      <c r="F152">
         <v>0.1380524126503164</v>
       </c>
-      <c r="F152">
+      <c r="G152">
         <v>0.2333428308144626</v>
       </c>
-      <c r="G152">
+      <c r="H152">
         <v>0.1998123502356138</v>
       </c>
-      <c r="H152">
+      <c r="I152">
         <v>17.62184678900186</v>
       </c>
-      <c r="I152">
+      <c r="J152">
         <v>-3.353048057884883</v>
+      </c>
+      <c r="K152">
+        <v>14.26879873111698</v>
       </c>
     </row>
     <row r="153">
@@ -47886,26 +49105,34 @@
           <t>Vidurio ir vakarų Lietuvos regionas</t>
         </is>
       </c>
-      <c r="C153">
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Intermediate</t>
+        </is>
+      </c>
+      <c r="D153">
         <v>0.04032134465352685</v>
       </c>
-      <c r="D153">
+      <c r="E153">
         <v>0.0407701598386389</v>
       </c>
-      <c r="E153">
+      <c r="F153">
         <v>0.05741906686215005</v>
       </c>
-      <c r="F153">
+      <c r="G153">
         <v>0.09550795251502413</v>
       </c>
-      <c r="G153">
+      <c r="H153">
         <v>0.07129499830073045</v>
       </c>
-      <c r="H153">
+      <c r="I153">
         <v>5.473779267638522</v>
       </c>
-      <c r="I153">
+      <c r="J153">
         <v>-2.421295421429368</v>
+      </c>
+      <c r="K153">
+        <v>3.052483846209155</v>
       </c>
     </row>
     <row r="154">
@@ -47919,26 +49146,34 @@
           <t>Luxembourg</t>
         </is>
       </c>
-      <c r="C154">
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Whole country</t>
+        </is>
+      </c>
+      <c r="D154">
         <v>0.3058505260446432</v>
       </c>
-      <c r="D154">
+      <c r="E154">
         <v>0.3313164304428629</v>
       </c>
-      <c r="E154">
+      <c r="F154">
         <v>0.4779459824530052</v>
       </c>
-      <c r="F154">
+      <c r="G154">
         <v>0.4540116399351807</v>
       </c>
-      <c r="G154">
+      <c r="H154">
         <v>0.4026882386850511</v>
       </c>
-      <c r="H154">
+      <c r="I154">
         <v>12.26952094923178</v>
       </c>
-      <c r="I154">
+      <c r="J154">
         <v>-5.132340125012957</v>
+      </c>
+      <c r="K154">
+        <v>7.137180824218825</v>
       </c>
     </row>
     <row r="155">
@@ -47952,26 +49187,34 @@
           <t>Latvija</t>
         </is>
       </c>
-      <c r="C155">
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Whole country</t>
+        </is>
+      </c>
+      <c r="D155">
         <v>0.04670398474672745</v>
       </c>
-      <c r="D155">
+      <c r="E155">
         <v>0.04676303371114272</v>
       </c>
-      <c r="E155">
+      <c r="F155">
         <v>0.05656173996498196</v>
       </c>
-      <c r="F155">
+      <c r="G155">
         <v>0.1363804848613116</v>
       </c>
-      <c r="G155">
+      <c r="H155">
         <v>0.1124500937611865</v>
       </c>
-      <c r="H155">
+      <c r="I155">
         <v>8.961745115016891</v>
       </c>
-      <c r="I155">
+      <c r="J155">
         <v>-2.393039110012511</v>
+      </c>
+      <c r="K155">
+        <v>6.56870600500438</v>
       </c>
     </row>
     <row r="156">
@@ -47985,26 +49228,34 @@
           <t>Malta</t>
         </is>
       </c>
-      <c r="C156">
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Whole country</t>
+        </is>
+      </c>
+      <c r="D156">
         <v>0.09806416701273744</v>
       </c>
-      <c r="D156">
+      <c r="E156">
         <v>0.117074910202221</v>
       </c>
-      <c r="E156">
+      <c r="F156">
         <v>0.2584193329556886</v>
       </c>
-      <c r="F156">
+      <c r="G156">
         <v>0.2924315185166509</v>
       </c>
-      <c r="G156">
+      <c r="H156">
         <v>0.2812022374842376</v>
       </c>
-      <c r="H156">
+      <c r="I156">
         <v>17.535660831443</v>
       </c>
-      <c r="I156">
+      <c r="J156">
         <v>-1.122928103241333</v>
+      </c>
+      <c r="K156">
+        <v>16.41273272820166</v>
       </c>
     </row>
     <row r="157">
@@ -48018,26 +49269,34 @@
           <t>Nederland</t>
         </is>
       </c>
-      <c r="C157">
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Whole country</t>
+        </is>
+      </c>
+      <c r="D157">
         <v>0.3574142068083687</v>
       </c>
-      <c r="D157">
+      <c r="E157">
         <v>0.3710316943696246</v>
       </c>
-      <c r="E157">
+      <c r="F157">
         <v>0.4028034683344803</v>
       </c>
-      <c r="F157">
+      <c r="G157">
         <v>0.5394000871783281</v>
       </c>
-      <c r="G157">
+      <c r="H157">
         <v>0.5306167327183778</v>
       </c>
-      <c r="H157">
+      <c r="I157">
         <v>16.83683928087035</v>
       </c>
-      <c r="I157">
+      <c r="J157">
         <v>-0.8783354459950266</v>
+      </c>
+      <c r="K157">
+        <v>15.95850383487532</v>
       </c>
     </row>
     <row r="158">
@@ -48051,26 +49310,34 @@
           <t>Małopolskie</t>
         </is>
       </c>
-      <c r="C158">
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Mainly rural</t>
+        </is>
+      </c>
+      <c r="D158">
         <v>0.1621710619337881</v>
       </c>
-      <c r="D158">
+      <c r="E158">
         <v>0.1554908852675255</v>
       </c>
-      <c r="E158">
+      <c r="F158">
         <v>0.1961762098034206</v>
       </c>
-      <c r="F158">
+      <c r="G158">
         <v>0.1593159917732522</v>
       </c>
-      <c r="G158">
+      <c r="H158">
         <v>0.1091735250493687</v>
       </c>
-      <c r="H158">
+      <c r="I158">
         <v>0.3825106505726705</v>
       </c>
-      <c r="I158">
+      <c r="J158">
         <v>-5.014246672388347</v>
+      </c>
+      <c r="K158">
+        <v>-4.631736021815676</v>
       </c>
     </row>
     <row r="159">
@@ -48084,26 +49351,34 @@
           <t>Śląskie</t>
         </is>
       </c>
-      <c r="C159">
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Mainly urban</t>
+        </is>
+      </c>
+      <c r="D159">
         <v>0.1198403377645072</v>
       </c>
-      <c r="D159">
+      <c r="E159">
         <v>0.1323836278434838</v>
       </c>
-      <c r="E159">
+      <c r="F159">
         <v>0.1555575261711852</v>
       </c>
-      <c r="F159">
+      <c r="G159">
         <v>0.1364898584438433</v>
       </c>
-      <c r="G159">
+      <c r="H159">
         <v>0.1152215975899958</v>
       </c>
-      <c r="H159">
+      <c r="I159">
         <v>0.4106230600359501</v>
       </c>
-      <c r="I159">
+      <c r="J159">
         <v>-2.126826085384749</v>
+      </c>
+      <c r="K159">
+        <v>-1.716203025348799</v>
       </c>
     </row>
     <row r="160">
@@ -48117,26 +49392,34 @@
           <t>Wielkopolskie</t>
         </is>
       </c>
-      <c r="C160">
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Mainly rural</t>
+        </is>
+      </c>
+      <c r="D160">
         <v>0.1418028592053709</v>
       </c>
-      <c r="D160">
+      <c r="E160">
         <v>0.1411521234964874</v>
       </c>
-      <c r="E160">
+      <c r="F160">
         <v>0.1702390688573018</v>
       </c>
-      <c r="F160">
+      <c r="G160">
         <v>0.1440692685047878</v>
       </c>
-      <c r="G160">
+      <c r="H160">
         <v>0.1377915528099832</v>
       </c>
-      <c r="H160">
+      <c r="I160">
         <v>0.2917145008300398</v>
       </c>
-      <c r="I160">
+      <c r="J160">
         <v>-0.6277715694804592</v>
+      </c>
+      <c r="K160">
+        <v>-0.3360570686504194</v>
       </c>
     </row>
     <row r="161">
@@ -48150,26 +49433,34 @@
           <t>Zachodniopomorskie</t>
         </is>
       </c>
-      <c r="C161">
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Intermediate</t>
+        </is>
+      </c>
+      <c r="D161">
         <v>0.1061769268314143</v>
       </c>
-      <c r="D161">
+      <c r="E161">
         <v>0.100394958718213</v>
       </c>
-      <c r="E161">
+      <c r="F161">
         <v>0.1343983529790771</v>
       </c>
-      <c r="F161">
+      <c r="G161">
         <v>0.1174699402000342</v>
       </c>
-      <c r="G161">
+      <c r="H161">
         <v>0.09304751241215019</v>
       </c>
-      <c r="H161">
+      <c r="I161">
         <v>1.707498148182121</v>
       </c>
-      <c r="I161">
+      <c r="J161">
         <v>-2.4422427787884</v>
+      </c>
+      <c r="K161">
+        <v>-0.7347446306062794</v>
       </c>
     </row>
     <row r="162">
@@ -48183,26 +49474,34 @@
           <t>Lubuskie</t>
         </is>
       </c>
-      <c r="C162">
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Intermediate</t>
+        </is>
+      </c>
+      <c r="D162">
         <v>0.08603731425435154</v>
       </c>
-      <c r="D162">
+      <c r="E162">
         <v>0.07590987773399038</v>
       </c>
-      <c r="E162">
+      <c r="F162">
         <v>0.1058797574867783</v>
       </c>
-      <c r="F162">
+      <c r="G162">
         <v>0.07794251386128301</v>
       </c>
-      <c r="G162">
+      <c r="H162">
         <v>0.04921654092374705</v>
       </c>
-      <c r="H162">
+      <c r="I162">
         <v>0.2032636127292625</v>
       </c>
-      <c r="I162">
+      <c r="J162">
         <v>-2.872597293753596</v>
+      </c>
+      <c r="K162">
+        <v>-2.669333681024334</v>
       </c>
     </row>
     <row r="163">
@@ -48216,26 +49515,34 @@
           <t>Dolnośląskie</t>
         </is>
       </c>
-      <c r="C163">
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Intermediate</t>
+        </is>
+      </c>
+      <c r="D163">
         <v>0.1293200043686529</v>
       </c>
-      <c r="D163">
+      <c r="E163">
         <v>0.1603578015068899</v>
       </c>
-      <c r="E163">
+      <c r="F163">
         <v>0.2121662465929527</v>
       </c>
-      <c r="F163">
+      <c r="G163">
         <v>0.1985101727714364</v>
       </c>
-      <c r="G163">
+      <c r="H163">
         <v>0.1566075465852612</v>
       </c>
-      <c r="H163">
+      <c r="I163">
         <v>3.815237126454649</v>
       </c>
-      <c r="I163">
+      <c r="J163">
         <v>-4.190262618617519</v>
+      </c>
+      <c r="K163">
+        <v>-0.3750254921628698</v>
       </c>
     </row>
     <row r="164">
@@ -48249,26 +49556,34 @@
           <t>Opolskie</t>
         </is>
       </c>
-      <c r="C164">
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Intermediate</t>
+        </is>
+      </c>
+      <c r="D164">
         <v>0.03876553165867357</v>
       </c>
-      <c r="D164">
+      <c r="E164">
         <v>0.04102383928390855</v>
       </c>
-      <c r="E164">
+      <c r="F164">
         <v>0.07784704898417094</v>
       </c>
-      <c r="F164">
+      <c r="G164">
         <v>0.06081190966910176</v>
       </c>
-      <c r="G164">
+      <c r="H164">
         <v>0.04680182131492201</v>
       </c>
-      <c r="H164">
+      <c r="I164">
         <v>1.978807038519321</v>
       </c>
-      <c r="I164">
+      <c r="J164">
         <v>-1.401008835417975</v>
+      </c>
+      <c r="K164">
+        <v>0.5777982031013463</v>
       </c>
     </row>
     <row r="165">
@@ -48282,26 +49597,34 @@
           <t>Kujawsko-pomorskie</t>
         </is>
       </c>
-      <c r="C165">
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Mainly rural</t>
+        </is>
+      </c>
+      <c r="D165">
         <v>0.1573968252731645</v>
       </c>
-      <c r="D165">
+      <c r="E165">
         <v>0.1583554690994567</v>
       </c>
-      <c r="E165">
+      <c r="F165">
         <v>0.1953617640490233</v>
       </c>
-      <c r="F165">
+      <c r="G165">
         <v>0.1707219824569831</v>
       </c>
-      <c r="G165">
+      <c r="H165">
         <v>0.1408094557659228</v>
       </c>
-      <c r="H165">
+      <c r="I165">
         <v>1.236651335752639</v>
       </c>
-      <c r="I165">
+      <c r="J165">
         <v>-2.991252669106029</v>
+      </c>
+      <c r="K165">
+        <v>-1.754601333353389</v>
       </c>
     </row>
     <row r="166">
@@ -48315,26 +49638,34 @@
           <t>Warmińsko-mazurskie</t>
         </is>
       </c>
-      <c r="C166">
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Intermediate</t>
+        </is>
+      </c>
+      <c r="D166">
         <v>0.1000360377311709</v>
       </c>
-      <c r="D166">
+      <c r="E166">
         <v>0.1158352646879859</v>
       </c>
-      <c r="E166">
+      <c r="F166">
         <v>0.1467836129498738</v>
       </c>
-      <c r="F166">
+      <c r="G166">
         <v>0.10348390381719</v>
       </c>
-      <c r="G166">
+      <c r="H166">
         <v>0.08676594399818058</v>
       </c>
-      <c r="H166">
+      <c r="I166">
         <v>-1.235136087079586</v>
       </c>
-      <c r="I166">
+      <c r="J166">
         <v>-1.671795981900943</v>
+      </c>
+      <c r="K166">
+        <v>-2.906932068980529</v>
       </c>
     </row>
     <row r="167">
@@ -48348,26 +49679,34 @@
           <t>Pomorskie</t>
         </is>
       </c>
-      <c r="C167">
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Intermediate</t>
+        </is>
+      </c>
+      <c r="D167">
         <v>0.1770502101191415</v>
       </c>
-      <c r="D167">
+      <c r="E167">
         <v>0.1777242714575096</v>
       </c>
-      <c r="E167">
+      <c r="F167">
         <v>0.2005288009547149</v>
       </c>
-      <c r="F167">
+      <c r="G167">
         <v>0.1816676987194413</v>
       </c>
-      <c r="G167">
+      <c r="H167">
         <v>0.1700562725235642</v>
       </c>
-      <c r="H167">
+      <c r="I167">
         <v>0.3943427261931698</v>
       </c>
-      <c r="I167">
+      <c r="J167">
         <v>-1.161142619587716</v>
+      </c>
+      <c r="K167">
+        <v>-0.7667998933945458</v>
       </c>
     </row>
     <row r="168">
@@ -48381,26 +49720,34 @@
           <t>Łódzkie</t>
         </is>
       </c>
-      <c r="C168">
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Mainly rural</t>
+        </is>
+      </c>
+      <c r="D168">
         <v>0.08839752674943629</v>
       </c>
-      <c r="D168">
+      <c r="E168">
         <v>0.08663197748805591</v>
       </c>
-      <c r="E168">
+      <c r="F168">
         <v>0.1629284782009419</v>
       </c>
-      <c r="F168">
+      <c r="G168">
         <v>0.1550778007823016</v>
       </c>
-      <c r="G168">
+      <c r="H168">
         <v>0.1268963320616132</v>
       </c>
-      <c r="H168">
+      <c r="I168">
         <v>6.844582329424566</v>
       </c>
-      <c r="I168">
+      <c r="J168">
         <v>-2.818146872068841</v>
+      </c>
+      <c r="K168">
+        <v>4.026435457355724</v>
       </c>
     </row>
     <row r="169">
@@ -48414,26 +49761,34 @@
           <t>Świętokrzyskie</t>
         </is>
       </c>
-      <c r="C169">
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Intermediate</t>
+        </is>
+      </c>
+      <c r="D169">
         <v>0.04646419602947729</v>
       </c>
-      <c r="D169">
+      <c r="E169">
         <v>0.04061716075713361</v>
       </c>
-      <c r="E169">
+      <c r="F169">
         <v>0.06871142825263948</v>
       </c>
-      <c r="F169">
+      <c r="G169">
         <v>0.04839425847342858</v>
       </c>
-      <c r="G169">
+      <c r="H169">
         <v>0.04700411609501669</v>
       </c>
-      <c r="H169">
+      <c r="I169">
         <v>0.7777097716294972</v>
       </c>
-      <c r="I169">
+      <c r="J169">
         <v>-0.1390142378411889</v>
+      </c>
+      <c r="K169">
+        <v>0.6386955337883082</v>
       </c>
     </row>
     <row r="170">
@@ -48447,26 +49802,34 @@
           <t>Lubelskie</t>
         </is>
       </c>
-      <c r="C170">
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Mainly rural</t>
+        </is>
+      </c>
+      <c r="D170">
         <v>0.1152230178065261</v>
       </c>
-      <c r="D170">
+      <c r="E170">
         <v>0.1337856254735637</v>
       </c>
-      <c r="E170">
+      <c r="F170">
         <v>0.1696519022958201</v>
       </c>
-      <c r="F170">
+      <c r="G170">
         <v>0.1390426237336133</v>
       </c>
-      <c r="G170">
+      <c r="H170">
         <v>0.109869019316013</v>
       </c>
-      <c r="H170">
+      <c r="I170">
         <v>0.5256998260049522</v>
       </c>
-      <c r="I170">
+      <c r="J170">
         <v>-2.917360441760027</v>
+      </c>
+      <c r="K170">
+        <v>-2.391660615755074</v>
       </c>
     </row>
     <row r="171">
@@ -48480,26 +49843,34 @@
           <t>Podkarpackie</t>
         </is>
       </c>
-      <c r="C171">
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Mainly rural</t>
+        </is>
+      </c>
+      <c r="D171">
         <v>0.1289236962598821</v>
       </c>
-      <c r="D171">
+      <c r="E171">
         <v>0.1123112314709806</v>
       </c>
-      <c r="E171">
+      <c r="F171">
         <v>0.131846817207608</v>
       </c>
-      <c r="F171">
+      <c r="G171">
         <v>0.09589396266360113</v>
       </c>
-      <c r="G171">
+      <c r="H171">
         <v>0.08470931121894855</v>
       </c>
-      <c r="H171">
+      <c r="I171">
         <v>-1.641726880737948</v>
       </c>
-      <c r="I171">
+      <c r="J171">
         <v>-1.118465144465258</v>
+      </c>
+      <c r="K171">
+        <v>-2.760192025203207</v>
       </c>
     </row>
     <row r="172">
@@ -48513,26 +49884,34 @@
           <t>Podlaskie</t>
         </is>
       </c>
-      <c r="C172">
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Mainly rural</t>
+        </is>
+      </c>
+      <c r="D172">
         <v>0.1434944259644962</v>
       </c>
-      <c r="D172">
+      <c r="E172">
         <v>0.140683461329519</v>
       </c>
-      <c r="E172">
+      <c r="F172">
         <v>0.1537864107513922</v>
       </c>
-      <c r="F172">
+      <c r="G172">
         <v>0.1090209569044385</v>
       </c>
-      <c r="G172">
+      <c r="H172">
         <v>0.1065571781894483</v>
       </c>
-      <c r="H172">
+      <c r="I172">
         <v>-3.16625044250805</v>
       </c>
-      <c r="I172">
+      <c r="J172">
         <v>-0.2463778714990247</v>
+      </c>
+      <c r="K172">
+        <v>-3.412628314007075</v>
       </c>
     </row>
     <row r="173">
@@ -48546,26 +49925,34 @@
           <t>Warszawski stołeczny</t>
         </is>
       </c>
-      <c r="C173">
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Capital region</t>
+        </is>
+      </c>
+      <c r="D173">
         <v>0.2598211031040719</v>
       </c>
-      <c r="D173">
+      <c r="E173">
         <v>0.2607868201343235</v>
       </c>
-      <c r="E173">
+      <c r="F173">
         <v>0.3513750829855006</v>
       </c>
-      <c r="F173">
+      <c r="G173">
         <v>0.3127761302632073</v>
       </c>
-      <c r="G173">
+      <c r="H173">
         <v>0.2439364689429111</v>
       </c>
-      <c r="H173">
+      <c r="I173">
         <v>5.19893101288838</v>
       </c>
-      <c r="I173">
+      <c r="J173">
         <v>-6.88396613202962</v>
+      </c>
+      <c r="K173">
+        <v>-1.68503511914124</v>
       </c>
     </row>
     <row r="174">
@@ -48579,26 +49966,34 @@
           <t>Mazowiecki regionalny</t>
         </is>
       </c>
-      <c r="C174">
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Mainly rural</t>
+        </is>
+      </c>
+      <c r="D174">
         <v>0.1068475181579322</v>
       </c>
-      <c r="D174">
+      <c r="E174">
         <v>0.1074609200581776</v>
       </c>
-      <c r="E174">
+      <c r="F174">
         <v>0.125952918329484</v>
       </c>
-      <c r="F174">
+      <c r="G174">
         <v>0.1034355232903494</v>
       </c>
-      <c r="G174">
+      <c r="H174">
         <v>0.08756737389094256</v>
       </c>
-      <c r="H174">
+      <c r="I174">
         <v>-0.4025396767828121</v>
       </c>
-      <c r="I174">
+      <c r="J174">
         <v>-1.586814939940688</v>
+      </c>
+      <c r="K174">
+        <v>-1.9893546167235</v>
       </c>
     </row>
     <row r="175">
@@ -48612,26 +50007,34 @@
           <t>Norte</t>
         </is>
       </c>
-      <c r="C175">
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Mainly urban</t>
+        </is>
+      </c>
+      <c r="D175">
         <v>0.1271179351026938</v>
       </c>
-      <c r="D175">
+      <c r="E175">
         <v>0.1336890826826562</v>
       </c>
-      <c r="E175">
+      <c r="F175">
         <v>0.1804749254455796</v>
       </c>
-      <c r="F175">
+      <c r="G175">
         <v>0.2255374151066145</v>
       </c>
-      <c r="G175">
+      <c r="H175">
         <v>0.1336852558078753</v>
       </c>
-      <c r="H175">
+      <c r="I175">
         <v>9.184833242395829</v>
       </c>
-      <c r="I175">
+      <c r="J175">
         <v>-9.18521592987392</v>
+      </c>
+      <c r="K175">
+        <v>-0.0003826874780898937</v>
       </c>
     </row>
     <row r="176">
@@ -48645,26 +50048,34 @@
           <t>Algarve</t>
         </is>
       </c>
-      <c r="C176">
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Intermediate</t>
+        </is>
+      </c>
+      <c r="D176">
         <v>0.1299015871632042</v>
       </c>
-      <c r="D176">
+      <c r="E176">
         <v>0.1352942042810458</v>
       </c>
-      <c r="E176">
+      <c r="F176">
         <v>0.175707678918397</v>
       </c>
-      <c r="F176">
+      <c r="G176">
         <v>0.1973389184372094</v>
       </c>
-      <c r="G176">
+      <c r="H176">
         <v>0.1389932799600201</v>
       </c>
-      <c r="H176">
+      <c r="I176">
         <v>6.204471415616364</v>
       </c>
-      <c r="I176">
+      <c r="J176">
         <v>-5.834563847718935</v>
+      </c>
+      <c r="K176">
+        <v>0.369907567897429</v>
       </c>
     </row>
     <row r="177">
@@ -48678,26 +50089,34 @@
           <t>Centro (PT)</t>
         </is>
       </c>
-      <c r="C177">
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Mainly rural</t>
+        </is>
+      </c>
+      <c r="D177">
         <v>0.1393611660360383</v>
       </c>
-      <c r="D177">
+      <c r="E177">
         <v>0.1498496314326859</v>
       </c>
-      <c r="E177">
+      <c r="F177">
         <v>0.1867933245685536</v>
       </c>
-      <c r="F177">
+      <c r="G177">
         <v>0.2048089676852458</v>
       </c>
-      <c r="G177">
+      <c r="H177">
         <v>0.1483877222568519</v>
       </c>
-      <c r="H177">
+      <c r="I177">
         <v>5.495933625255994</v>
       </c>
-      <c r="I177">
+      <c r="J177">
         <v>-5.642124542839394</v>
+      </c>
+      <c r="K177">
+        <v>-0.1461909175833997</v>
       </c>
     </row>
     <row r="178">
@@ -48711,26 +50130,34 @@
           <t>Área Metropolitana de Lisboa</t>
         </is>
       </c>
-      <c r="C178">
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Capital region</t>
+        </is>
+      </c>
+      <c r="D178">
         <v>0.1947551730272409</v>
       </c>
-      <c r="D178">
+      <c r="E178">
         <v>0.2094062092433827</v>
       </c>
-      <c r="E178">
+      <c r="F178">
         <v>0.3324949302307807</v>
       </c>
-      <c r="F178">
+      <c r="G178">
         <v>0.3998059335460053</v>
       </c>
-      <c r="G178">
+      <c r="H178">
         <v>0.3064849652516589</v>
       </c>
-      <c r="H178">
+      <c r="I178">
         <v>19.03997243026226</v>
       </c>
-      <c r="I178">
+      <c r="J178">
         <v>-9.332096829434644</v>
+      </c>
+      <c r="K178">
+        <v>9.707875600827615</v>
       </c>
     </row>
     <row r="179">
@@ -48744,26 +50171,34 @@
           <t>Alentejo</t>
         </is>
       </c>
-      <c r="C179">
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Mainly rural</t>
+        </is>
+      </c>
+      <c r="D179">
         <v>0.1117959438865645</v>
       </c>
-      <c r="D179">
+      <c r="E179">
         <v>0.1111487784218877</v>
       </c>
-      <c r="E179">
+      <c r="F179">
         <v>0.1646217017831164</v>
       </c>
-      <c r="F179">
+      <c r="G179">
         <v>0.168447922930814</v>
       </c>
-      <c r="G179">
+      <c r="H179">
         <v>0.1370522819758484</v>
       </c>
-      <c r="H179">
+      <c r="I179">
         <v>5.729914450892627</v>
       </c>
-      <c r="I179">
+      <c r="J179">
         <v>-3.139564095496561</v>
+      </c>
+      <c r="K179">
+        <v>2.590350355396066</v>
       </c>
     </row>
     <row r="180">
@@ -48777,26 +50212,34 @@
           <t>Região Autónoma dos Açores</t>
         </is>
       </c>
-      <c r="C180">
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Intermediate</t>
+        </is>
+      </c>
+      <c r="D180">
         <v>0.1008151553885231</v>
       </c>
-      <c r="D180">
+      <c r="E180">
         <v>0.09536589696623704</v>
       </c>
-      <c r="E180">
+      <c r="F180">
         <v>0.1330409459247807</v>
       </c>
-      <c r="F180">
+      <c r="G180">
         <v>0.1279392446996274</v>
       </c>
-      <c r="G180">
+      <c r="H180">
         <v>0.07205231746700298</v>
       </c>
-      <c r="H180">
+      <c r="I180">
         <v>3.257334773339038</v>
       </c>
-      <c r="I180">
+      <c r="J180">
         <v>-5.588692723262444</v>
+      </c>
+      <c r="K180">
+        <v>-2.331357949923406</v>
       </c>
     </row>
     <row r="181">
@@ -48810,26 +50253,34 @@
           <t>Região Autónoma da Madeira</t>
         </is>
       </c>
-      <c r="C181">
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Mainly urban</t>
+        </is>
+      </c>
+      <c r="D181">
         <v>0.1314931830099795</v>
       </c>
-      <c r="D181">
+      <c r="E181">
         <v>0.134638281810151</v>
       </c>
-      <c r="E181">
+      <c r="F181">
         <v>0.1593009051341622</v>
       </c>
-      <c r="F181">
+      <c r="G181">
         <v>0.166345435472197</v>
       </c>
-      <c r="G181">
+      <c r="H181">
         <v>0.1197737974383758</v>
       </c>
-      <c r="H181">
+      <c r="I181">
         <v>3.170715366204602</v>
       </c>
-      <c r="I181">
+      <c r="J181">
         <v>-4.657163803382115</v>
+      </c>
+      <c r="K181">
+        <v>-1.486448437177514</v>
       </c>
     </row>
     <row r="182">
@@ -48843,26 +50294,34 @@
           <t>Nord-Vest</t>
         </is>
       </c>
-      <c r="C182">
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Mainly rural</t>
+        </is>
+      </c>
+      <c r="D182">
         <v>0.006883689373212757</v>
       </c>
-      <c r="D182">
+      <c r="E182">
         <v>0.01186956299972945</v>
       </c>
-      <c r="E182">
+      <c r="F182">
         <v>0.03101963691466618</v>
       </c>
-      <c r="F182">
+      <c r="G182">
         <v>0.05496420382903329</v>
       </c>
-      <c r="G182">
+      <c r="H182">
         <v>0.03723160494523602</v>
       </c>
-      <c r="H182">
+      <c r="I182">
         <v>4.309464082930385</v>
       </c>
-      <c r="I182">
+      <c r="J182">
         <v>-1.773259888379727</v>
+      </c>
+      <c r="K182">
+        <v>2.536204194550657</v>
       </c>
     </row>
     <row r="183">
@@ -48876,26 +50335,34 @@
           <t>Centru</t>
         </is>
       </c>
-      <c r="C183">
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Mainly rural</t>
+        </is>
+      </c>
+      <c r="D183">
         <v>0.007637988097405936</v>
       </c>
-      <c r="D183">
+      <c r="E183">
         <v>0.02412356958748519</v>
       </c>
-      <c r="E183">
+      <c r="F183">
         <v>0.02907815133861455</v>
       </c>
-      <c r="F183">
+      <c r="G183">
         <v>0.05133355136344302</v>
       </c>
-      <c r="G183">
+      <c r="H183">
         <v>0.03789412579317489</v>
       </c>
-      <c r="H183">
+      <c r="I183">
         <v>2.720998177595783</v>
       </c>
-      <c r="I183">
+      <c r="J183">
         <v>-1.343942557026812</v>
+      </c>
+      <c r="K183">
+        <v>1.377055620568971</v>
       </c>
     </row>
     <row r="184">
@@ -48909,26 +50376,34 @@
           <t>Nord-Est</t>
         </is>
       </c>
-      <c r="C184">
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Mainly rural</t>
+        </is>
+      </c>
+      <c r="D184">
         <v>0.007343234023226178</v>
       </c>
-      <c r="D184">
+      <c r="E184">
         <v>0.008847844880328222</v>
       </c>
-      <c r="E184">
+      <c r="F184">
         <v>0.02050255996621672</v>
       </c>
-      <c r="F184">
+      <c r="G184">
         <v>0.04313615673703105</v>
       </c>
-      <c r="G184">
+      <c r="H184">
         <v>0.02817270317750427</v>
       </c>
-      <c r="H184">
+      <c r="I184">
         <v>3.428831185670283</v>
       </c>
-      <c r="I184">
+      <c r="J184">
         <v>-1.496345355952678</v>
+      </c>
+      <c r="K184">
+        <v>1.932485829717604</v>
       </c>
     </row>
     <row r="185">
@@ -48942,26 +50417,34 @@
           <t>Sud-Est</t>
         </is>
       </c>
-      <c r="C185">
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Intermediate</t>
+        </is>
+      </c>
+      <c r="D185">
         <v>0.006510142198377676</v>
       </c>
-      <c r="D185">
+      <c r="E185">
         <v>0.01210508361711152</v>
       </c>
-      <c r="E185">
+      <c r="F185">
         <v>0.0279845813715119</v>
       </c>
-      <c r="F185">
+      <c r="G185">
         <v>0.05330768742141653</v>
       </c>
-      <c r="G185">
+      <c r="H185">
         <v>0.02645653803039566</v>
       </c>
-      <c r="H185">
+      <c r="I185">
         <v>4.1202603804305</v>
       </c>
-      <c r="I185">
+      <c r="J185">
         <v>-2.685114939102087</v>
+      </c>
+      <c r="K185">
+        <v>1.435145441328414</v>
       </c>
     </row>
     <row r="186">
@@ -48975,26 +50458,34 @@
           <t>Sud-Muntenia</t>
         </is>
       </c>
-      <c r="C186">
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Mainly rural</t>
+        </is>
+      </c>
+      <c r="D186">
         <v>0.00670817094721617</v>
       </c>
-      <c r="D186">
+      <c r="E186">
         <v>0.01064868869322312</v>
       </c>
-      <c r="E186">
+      <c r="F186">
         <v>0.02322166717471587</v>
       </c>
-      <c r="F186">
+      <c r="G186">
         <v>0.03509254799911884</v>
       </c>
-      <c r="G186">
+      <c r="H186">
         <v>0.024883827471093</v>
       </c>
-      <c r="H186">
+      <c r="I186">
         <v>2.444385930589573</v>
       </c>
-      <c r="I186">
+      <c r="J186">
         <v>-1.020872052802585</v>
+      </c>
+      <c r="K186">
+        <v>1.423513877786988</v>
       </c>
     </row>
     <row r="187">
@@ -49008,26 +50499,34 @@
           <t>Bucureşti-Ilfov</t>
         </is>
       </c>
-      <c r="C187">
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Capital region</t>
+        </is>
+      </c>
+      <c r="D187">
         <v>0.004957673991979276</v>
       </c>
-      <c r="D187">
+      <c r="E187">
         <v>0.01549203273898729</v>
       </c>
-      <c r="E187">
+      <c r="F187">
         <v>0.08306885079950584</v>
       </c>
-      <c r="F187">
+      <c r="G187">
         <v>0.1828636786907789</v>
       </c>
-      <c r="G187">
+      <c r="H187">
         <v>0.1134700458566321</v>
       </c>
-      <c r="H187">
+      <c r="I187">
         <v>16.73716459517916</v>
       </c>
-      <c r="I187">
+      <c r="J187">
         <v>-6.939363283414676</v>
+      </c>
+      <c r="K187">
+        <v>9.797801311764481</v>
       </c>
     </row>
     <row r="188">
@@ -49041,26 +50540,34 @@
           <t>Sud-Vest Oltenia</t>
         </is>
       </c>
-      <c r="C188">
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Mainly rural</t>
+        </is>
+      </c>
+      <c r="D188">
         <v>0.01161856441066089</v>
       </c>
-      <c r="D188">
+      <c r="E188">
         <v>0.02363347445323078</v>
       </c>
-      <c r="E188">
+      <c r="F188">
         <v>0.01893161267640737</v>
       </c>
-      <c r="F188">
+      <c r="G188">
         <v>0.04023071119074087</v>
       </c>
-      <c r="G188">
+      <c r="H188">
         <v>0.02537423873171692</v>
       </c>
-      <c r="H188">
+      <c r="I188">
         <v>1.659723673751009</v>
       </c>
-      <c r="I188">
+      <c r="J188">
         <v>-1.485647245902395</v>
+      </c>
+      <c r="K188">
+        <v>0.1740764278486143</v>
       </c>
     </row>
     <row r="189">
@@ -49074,26 +50581,34 @@
           <t>Vest</t>
         </is>
       </c>
-      <c r="C189">
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Intermediate</t>
+        </is>
+      </c>
+      <c r="D189">
         <v>0.01400587301554766</v>
       </c>
-      <c r="D189">
+      <c r="E189">
         <v>0.01340540162429756</v>
       </c>
-      <c r="E189">
+      <c r="F189">
         <v>0.02487574823227585</v>
       </c>
-      <c r="F189">
+      <c r="G189">
         <v>0.05583309227338414</v>
       </c>
-      <c r="G189">
+      <c r="H189">
         <v>0.0419774742240147</v>
       </c>
-      <c r="H189">
+      <c r="I189">
         <v>4.242769064908657</v>
       </c>
-      <c r="I189">
+      <c r="J189">
         <v>-1.385561804936944</v>
+      </c>
+      <c r="K189">
+        <v>2.857207259971713</v>
       </c>
     </row>
     <row r="190">
@@ -49107,26 +50622,34 @@
           <t>Stockholm</t>
         </is>
       </c>
-      <c r="C190">
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Capital region</t>
+        </is>
+      </c>
+      <c r="D190">
         <v>0.4487227847769521</v>
       </c>
-      <c r="D190">
+      <c r="E190">
         <v>0.4878926742085355</v>
       </c>
-      <c r="E190">
+      <c r="F190">
         <v>0.428075020123668</v>
       </c>
-      <c r="F190">
+      <c r="G190">
         <v>0.5940539909513098</v>
       </c>
-      <c r="G190">
+      <c r="H190">
         <v>0.5789943648588987</v>
       </c>
-      <c r="H190">
+      <c r="I190">
         <v>10.61613167427743</v>
       </c>
-      <c r="I190">
+      <c r="J190">
         <v>-1.505962609241118</v>
+      </c>
+      <c r="K190">
+        <v>9.110169065036317</v>
       </c>
     </row>
     <row r="191">
@@ -49140,26 +50663,34 @@
           <t>Östra Mellansverige</t>
         </is>
       </c>
-      <c r="C191">
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Intermediate</t>
+        </is>
+      </c>
+      <c r="D191">
         <v>0.3177635189786349</v>
       </c>
-      <c r="D191">
+      <c r="E191">
         <v>0.3389911035421868</v>
       </c>
-      <c r="E191">
+      <c r="F191">
         <v>0.3096729570106963</v>
       </c>
-      <c r="F191">
+      <c r="G191">
         <v>0.430440974759202</v>
       </c>
-      <c r="G191">
+      <c r="H191">
         <v>0.4158842991472387</v>
       </c>
-      <c r="H191">
+      <c r="I191">
         <v>9.14498712170152</v>
       </c>
-      <c r="I191">
+      <c r="J191">
         <v>-1.455667561196328</v>
+      </c>
+      <c r="K191">
+        <v>7.689319560505192</v>
       </c>
     </row>
     <row r="192">
@@ -49173,26 +50704,34 @@
           <t>Småland med öarna</t>
         </is>
       </c>
-      <c r="C192">
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Mainly rural</t>
+        </is>
+      </c>
+      <c r="D192">
         <v>0.2991785656044298</v>
       </c>
-      <c r="D192">
+      <c r="E192">
         <v>0.3084888678222302</v>
       </c>
-      <c r="E192">
+      <c r="F192">
         <v>0.2551013355242339</v>
       </c>
-      <c r="F192">
+      <c r="G192">
         <v>0.3725589977311677</v>
       </c>
-      <c r="G192">
+      <c r="H192">
         <v>0.3554543671426537</v>
       </c>
-      <c r="H192">
+      <c r="I192">
         <v>6.407012990893756</v>
       </c>
-      <c r="I192">
+      <c r="J192">
         <v>-1.710463058851402</v>
+      </c>
+      <c r="K192">
+        <v>4.696549932042354</v>
       </c>
     </row>
     <row r="193">
@@ -49206,26 +50745,34 @@
           <t>Sydsverige</t>
         </is>
       </c>
-      <c r="C193">
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Intermediate</t>
+        </is>
+      </c>
+      <c r="D193">
         <v>0.3605449929340289</v>
       </c>
-      <c r="D193">
+      <c r="E193">
         <v>0.3824012737560085</v>
       </c>
-      <c r="E193">
+      <c r="F193">
         <v>0.3316157129059237</v>
       </c>
-      <c r="F193">
+      <c r="G193">
         <v>0.4528987726605517</v>
       </c>
-      <c r="G193">
+      <c r="H193">
         <v>0.4314682615035221</v>
       </c>
-      <c r="H193">
+      <c r="I193">
         <v>7.049749890454327</v>
       </c>
-      <c r="I193">
+      <c r="J193">
         <v>-2.14305111570296</v>
+      </c>
+      <c r="K193">
+        <v>4.906698774751367</v>
       </c>
     </row>
     <row r="194">
@@ -49239,26 +50786,34 @@
           <t>Västsverige</t>
         </is>
       </c>
-      <c r="C194">
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Mainly urban</t>
+        </is>
+      </c>
+      <c r="D194">
         <v>0.3314931078918242</v>
       </c>
-      <c r="D194">
+      <c r="E194">
         <v>0.3553042249569014</v>
       </c>
-      <c r="E194">
+      <c r="F194">
         <v>0.3194173552505669</v>
       </c>
-      <c r="F194">
+      <c r="G194">
         <v>0.4444570105829502</v>
       </c>
-      <c r="G194">
+      <c r="H194">
         <v>0.43627760927848</v>
       </c>
-      <c r="H194">
+      <c r="I194">
         <v>8.915278562604879</v>
       </c>
-      <c r="I194">
+      <c r="J194">
         <v>-0.8179401304470257</v>
+      </c>
+      <c r="K194">
+        <v>8.097338432157851</v>
       </c>
     </row>
     <row r="195">
@@ -49272,26 +50827,34 @@
           <t>Norra Mellansverige</t>
         </is>
       </c>
-      <c r="C195">
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Intermediate</t>
+        </is>
+      </c>
+      <c r="D195">
         <v>0.2868315591919118</v>
       </c>
-      <c r="D195">
+      <c r="E195">
         <v>0.2974066576571261</v>
       </c>
-      <c r="E195">
+      <c r="F195">
         <v>0.2636989552774203</v>
       </c>
-      <c r="F195">
+      <c r="G195">
         <v>0.3688988267265482</v>
       </c>
-      <c r="G195">
+      <c r="H195">
         <v>0.3542420947997477</v>
       </c>
-      <c r="H195">
+      <c r="I195">
         <v>7.149216906942202</v>
       </c>
-      <c r="I195">
+      <c r="J195">
         <v>-1.46567319268005</v>
+      </c>
+      <c r="K195">
+        <v>5.683543714262152</v>
       </c>
     </row>
     <row r="196">
@@ -49305,26 +50868,34 @@
           <t>Mellersta Norrland</t>
         </is>
       </c>
-      <c r="C196">
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Intermediate</t>
+        </is>
+      </c>
+      <c r="D196">
         <v>0.2905789732970911</v>
       </c>
-      <c r="D196">
+      <c r="E196">
         <v>0.3341587297605074</v>
       </c>
-      <c r="E196">
+      <c r="F196">
         <v>0.3085090697601648</v>
       </c>
-      <c r="F196">
+      <c r="G196">
         <v>0.3991218483632776</v>
       </c>
-      <c r="G196">
+      <c r="H196">
         <v>0.3947941870568965</v>
       </c>
-      <c r="H196">
+      <c r="I196">
         <v>6.496311860277021</v>
       </c>
-      <c r="I196">
+      <c r="J196">
         <v>-0.4327661306381181</v>
+      </c>
+      <c r="K196">
+        <v>6.063545729638903</v>
       </c>
     </row>
     <row r="197">
@@ -49338,26 +50909,34 @@
           <t>Övre Norrland</t>
         </is>
       </c>
-      <c r="C197">
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Intermediate</t>
+        </is>
+      </c>
+      <c r="D197">
         <v>0.2668120323618344</v>
       </c>
-      <c r="D197">
+      <c r="E197">
         <v>0.2854297240646806</v>
       </c>
-      <c r="E197">
+      <c r="F197">
         <v>0.2594558307477149</v>
       </c>
-      <c r="F197">
+      <c r="G197">
         <v>0.3886710854810989</v>
       </c>
-      <c r="G197">
+      <c r="H197">
         <v>0.3596129192982596</v>
       </c>
-      <c r="H197">
+      <c r="I197">
         <v>10.32413614164182</v>
       </c>
-      <c r="I197">
+      <c r="J197">
         <v>-2.905816618283924</v>
+      </c>
+      <c r="K197">
+        <v>7.418319523357897</v>
       </c>
     </row>
     <row r="198">
@@ -49371,26 +50950,34 @@
           <t>Vzhodna Slovenija</t>
         </is>
       </c>
-      <c r="C198">
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Mainly rural</t>
+        </is>
+      </c>
+      <c r="D198">
         <v>0.1347183569158527</v>
       </c>
-      <c r="D198">
+      <c r="E198">
         <v>0.128622378569155</v>
       </c>
-      <c r="E198">
+      <c r="F198">
         <v>0.1549975148569988</v>
       </c>
-      <c r="F198">
+      <c r="G198">
         <v>0.1872535314902509</v>
       </c>
-      <c r="G198">
+      <c r="H198">
         <v>0.1834692194576437</v>
       </c>
-      <c r="H198">
+      <c r="I198">
         <v>5.863115292109594</v>
       </c>
-      <c r="I198">
+      <c r="J198">
         <v>-0.3784312032607234</v>
+      </c>
+      <c r="K198">
+        <v>5.484684088848871</v>
       </c>
     </row>
     <row r="199">
@@ -49404,26 +50991,34 @@
           <t>Zahodna Slovenija</t>
         </is>
       </c>
-      <c r="C199">
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Capital region</t>
+        </is>
+      </c>
+      <c r="D199">
         <v>0.2260931888308255</v>
       </c>
-      <c r="D199">
+      <c r="E199">
         <v>0.230253303898738</v>
       </c>
-      <c r="E199">
+      <c r="F199">
         <v>0.2486215265798097</v>
       </c>
-      <c r="F199">
+      <c r="G199">
         <v>0.2732880530273399</v>
       </c>
-      <c r="G199">
+      <c r="H199">
         <v>0.2652033211786271</v>
       </c>
-      <c r="H199">
+      <c r="I199">
         <v>4.303474912860194</v>
       </c>
-      <c r="I199">
+      <c r="J199">
         <v>-0.8084731848712834</v>
+      </c>
+      <c r="K199">
+        <v>3.495001727988911</v>
       </c>
     </row>
     <row r="200">
@@ -49437,26 +51032,34 @@
           <t>Bratislavský kraj</t>
         </is>
       </c>
-      <c r="C200">
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Capital region</t>
+        </is>
+      </c>
+      <c r="D200">
         <v>0.1953206263268349</v>
       </c>
-      <c r="D200">
+      <c r="E200">
         <v>0.1995326875432695</v>
       </c>
-      <c r="E200">
+      <c r="F200">
         <v>0.2191746287599047</v>
       </c>
-      <c r="F200">
+      <c r="G200">
         <v>0.2356485266532131</v>
       </c>
-      <c r="G200">
+      <c r="H200">
         <v>0.2297809504466105</v>
       </c>
-      <c r="H200">
+      <c r="I200">
         <v>3.611583910994359</v>
       </c>
-      <c r="I200">
+      <c r="J200">
         <v>-0.5867576206602609</v>
+      </c>
+      <c r="K200">
+        <v>3.024826290334098</v>
       </c>
     </row>
     <row r="201">
@@ -49470,26 +51073,34 @@
           <t>Západné Slovensko</t>
         </is>
       </c>
-      <c r="C201">
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Intermediate</t>
+        </is>
+      </c>
+      <c r="D201">
         <v>0.07868822069622167</v>
       </c>
-      <c r="D201">
+      <c r="E201">
         <v>0.08709016015290801</v>
       </c>
-      <c r="E201">
+      <c r="F201">
         <v>0.1028753867525224</v>
       </c>
-      <c r="F201">
+      <c r="G201">
         <v>0.1324071502610959</v>
       </c>
-      <c r="G201">
+      <c r="H201">
         <v>0.1115985825083573</v>
       </c>
-      <c r="H201">
+      <c r="I201">
         <v>4.531699010818789</v>
       </c>
-      <c r="I201">
+      <c r="J201">
         <v>-2.080856775273856</v>
+      </c>
+      <c r="K201">
+        <v>2.450842235544933</v>
       </c>
     </row>
     <row r="202">
@@ -49503,26 +51114,34 @@
           <t>Stredné Slovensko</t>
         </is>
       </c>
-      <c r="C202">
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Intermediate</t>
+        </is>
+      </c>
+      <c r="D202">
         <v>0.1028463110088614</v>
       </c>
-      <c r="D202">
+      <c r="E202">
         <v>0.09669671003962543</v>
       </c>
-      <c r="E202">
+      <c r="F202">
         <v>0.1109890035946202</v>
       </c>
-      <c r="F202">
+      <c r="G202">
         <v>0.146754767737784</v>
       </c>
-      <c r="G202">
+      <c r="H202">
         <v>0.1237172470165922</v>
       </c>
-      <c r="H202">
+      <c r="I202">
         <v>5.005805769815852</v>
       </c>
-      <c r="I202">
+      <c r="J202">
         <v>-2.303752072119172</v>
+      </c>
+      <c r="K202">
+        <v>2.70205369769668</v>
       </c>
     </row>
     <row r="203">
@@ -49536,26 +51155,34 @@
           <t>Východné Slovensko</t>
         </is>
       </c>
-      <c r="C203">
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Mainly rural</t>
+        </is>
+      </c>
+      <c r="D203">
         <v>0.04611913650255992</v>
       </c>
-      <c r="D203">
+      <c r="E203">
         <v>0.0563095769850204</v>
       </c>
-      <c r="E203">
+      <c r="F203">
         <v>0.08959585679682464</v>
       </c>
-      <c r="F203">
+      <c r="G203">
         <v>0.1377892036376059</v>
       </c>
-      <c r="G203">
+      <c r="H203">
         <v>0.1129741854059611</v>
       </c>
-      <c r="H203">
+      <c r="I203">
         <v>8.147962665258552</v>
       </c>
-      <c r="I203">
+      <c r="J203">
         <v>-2.481501823164479</v>
+      </c>
+      <c r="K203">
+        <v>5.666460842094072</v>
       </c>
     </row>
   </sheetData>
